--- a/Documentation/E-Pariksha_Database.xlsx
+++ b/Documentation/E-Pariksha_Database.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cppad\Desktop\Project\C-ExamPlus\Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pritam\Downloads\ourProject\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BC5BBC5-9E20-488F-9EA8-CF6FC2B2E7C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="28770" windowHeight="15450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="930" windowWidth="28770" windowHeight="15450"/>
   </bookViews>
   <sheets>
     <sheet name="DB_Schema" sheetId="1" r:id="rId1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="162">
   <si>
     <t xml:space="preserve">User_ID </t>
   </si>
@@ -34,9 +33,6 @@
     <t>Password</t>
   </si>
   <si>
-    <t>Student</t>
-  </si>
-  <si>
     <t>admin</t>
   </si>
   <si>
@@ -292,9 +288,6 @@
     <t>EXAMDB</t>
   </si>
   <si>
-    <t xml:space="preserve">Admin </t>
-  </si>
-  <si>
     <t>Active</t>
   </si>
   <si>
@@ -347,15 +340,6 @@
   </si>
   <si>
     <t>M.TECH CS</t>
-  </si>
-  <si>
-    <t>Added_Date</t>
-  </si>
-  <si>
-    <t>Teacher_Subject_tbl</t>
-  </si>
-  <si>
-    <t>Question_Type</t>
   </si>
   <si>
     <r>
@@ -564,30 +548,6 @@
     </r>
   </si>
   <si>
-    <t>Exam_Question_map_tbl</t>
-  </si>
-  <si>
-    <t>Admin _tbl</t>
-  </si>
-  <si>
-    <t>Student_tbl</t>
-  </si>
-  <si>
-    <t>Teacher_tbl</t>
-  </si>
-  <si>
-    <t>Subject_tbl</t>
-  </si>
-  <si>
-    <t>Exam_tbl</t>
-  </si>
-  <si>
-    <t>Questions_tbl</t>
-  </si>
-  <si>
-    <t>Result_tbl</t>
-  </si>
-  <si>
     <t>Student_FirstName</t>
   </si>
   <si>
@@ -690,11 +650,53 @@
   <si>
     <t>E-PARIKSHA</t>
   </si>
+  <si>
+    <t>Is_Active</t>
+  </si>
+  <si>
+    <t>Question_Level</t>
+  </si>
+  <si>
+    <t>Subject_description</t>
+  </si>
+  <si>
+    <t>Student_info_tbl</t>
+  </si>
+  <si>
+    <t>Teacher_info_tbl</t>
+  </si>
+  <si>
+    <t>Subject_info_tbl</t>
+  </si>
+  <si>
+    <t>Exam_info_tbl</t>
+  </si>
+  <si>
+    <t>Questions_info_tbl</t>
+  </si>
+  <si>
+    <t>Result_info_tbl</t>
+  </si>
+  <si>
+    <t>Teacher_Subject_info_tbl</t>
+  </si>
+  <si>
+    <t>Exam_Question_map_info_tbl</t>
+  </si>
+  <si>
+    <t>Admin _info_tbl</t>
+  </si>
+  <si>
+    <t>Admin_info_tbl</t>
+  </si>
+  <si>
+    <t>Year_Of_Experience</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -803,7 +805,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -826,6 +828,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -835,7 +846,7 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -868,6 +879,17 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1195,16 +1217,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:N123"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:C2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="23.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18" style="1" bestFit="1" customWidth="1"/>
@@ -1214,30 +1236,30 @@
     <col min="9" max="9" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16.85546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.42578125" customWidth="1"/>
     <col min="13" max="13" width="14" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:14" ht="21" x14ac:dyDescent="0.35">
       <c r="B1" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
     </row>
     <row r="2" spans="2:14" ht="21" x14ac:dyDescent="0.35">
       <c r="B2" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2" s="15" t="s">
         <v>86</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B5" s="10" t="s">
-        <v>88</v>
+        <v>160</v>
       </c>
       <c r="C5" s="13" t="s">
         <v>0</v>
@@ -1273,43 +1295,43 @@
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" s="10" t="s">
-        <v>2</v>
+        <v>151</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="H7" s="13" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="I7" s="13" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="J7" s="13" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="K7" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="L7" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="M7" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="L7" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="M7" s="13" t="s">
-        <v>105</v>
-      </c>
       <c r="N7" s="13" t="s">
-        <v>107</v>
+        <v>148</v>
       </c>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.25">
@@ -1329,41 +1351,39 @@
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="G9" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="H9" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="C9" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="F9" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="G9" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="H9" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="I9" s="13" t="s">
-        <v>140</v>
-      </c>
-      <c r="J9" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="K9" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="L9" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="M9" s="13" t="s">
-        <v>107</v>
-      </c>
+      <c r="I9" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="J9" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="K9" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="L9" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="M9" s="17"/>
       <c r="N9" s="14"/>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.25">
@@ -1383,15 +1403,17 @@
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
-        <v>127</v>
+        <v>153</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="E11" s="14"/>
+        <v>35</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>150</v>
+      </c>
       <c r="F11" s="14"/>
       <c r="G11" s="14"/>
       <c r="H11" s="14"/>
@@ -1419,40 +1441,40 @@
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
-        <v>128</v>
+        <v>154</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G13" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="H13" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="I13" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="J13" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="H13" s="13" t="s">
+      <c r="K13" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="I13" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="J13" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="K13" s="13" t="s">
-        <v>94</v>
-      </c>
       <c r="L13" s="13" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="M13" s="13" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="N13" s="14"/>
     </row>
@@ -1473,34 +1495,34 @@
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
-        <v>129</v>
+        <v>155</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="E15" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="F15" s="13" t="s">
+      <c r="H15" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="G15" s="13" t="s">
+      <c r="I15" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="H15" s="13" t="s">
+      <c r="J15" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="I15" s="13" t="s">
+      <c r="K15" s="13" t="s">
         <v>19</v>
-      </c>
-      <c r="J15" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="K15" s="13" t="s">
-        <v>109</v>
       </c>
       <c r="L15" s="14"/>
       <c r="M15" s="14"/>
@@ -1523,19 +1545,19 @@
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
-        <v>130</v>
+        <v>156</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F17" s="13" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="G17" s="14"/>
       <c r="H17" s="14"/>
@@ -1563,13 +1585,13 @@
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
-        <v>108</v>
+        <v>157</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="E19" s="14"/>
       <c r="F19" s="14"/>
@@ -1599,13 +1621,13 @@
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="10" t="s">
-        <v>123</v>
+        <v>158</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="E21" s="14"/>
       <c r="F21" s="14"/>
@@ -1642,47 +1664,51 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F9AB8D2-52DB-40DC-A6D2-002615C33945}">
-  <dimension ref="B1:N86"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P86"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView topLeftCell="G5" workbookViewId="0">
+      <selection activeCell="N31" sqref="N31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="64" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="64" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="27.7109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="20.7109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="19.140625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="14" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" t="e">
+        <f>LOWER(A6:N70)</f>
+        <v>#VALUE!</v>
+      </c>
       <c r="B1" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="21" x14ac:dyDescent="0.35">
+      <c r="B2" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="C1" s="15" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="2" spans="2:14" ht="21" x14ac:dyDescent="0.35">
-      <c r="B2" s="7" t="s">
+      <c r="C2" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="C2" s="15" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -1692,9 +1718,9 @@
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B7" s="5" t="s">
-        <v>124</v>
+        <v>159</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>0</v>
@@ -1709,12 +1735,12 @@
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
     </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C8" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>3</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
@@ -1723,7 +1749,7 @@
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -1733,7 +1759,7 @@
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -1743,7 +1769,7 @@
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -1753,7 +1779,7 @@
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -1763,56 +1789,56 @@
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B13" s="5" t="s">
-        <v>125</v>
+        <v>151</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="K13" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="M13" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="L13" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="M13" s="2" t="s">
-        <v>105</v>
-      </c>
       <c r="N13" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C14" s="3">
         <v>11</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F14" s="3">
         <v>9988774455</v>
@@ -1821,13 +1847,13 @@
         <v>35350</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J14" s="8" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="K14" s="9">
         <v>0.92</v>
@@ -1838,19 +1864,21 @@
       <c r="M14" s="9">
         <v>0.92</v>
       </c>
-      <c r="N14" s="6">
-        <v>44481</v>
-      </c>
-    </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="N14" s="3">
+        <v>1</v>
+      </c>
+      <c r="O14" s="18"/>
+      <c r="P14" s="19"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C15" s="3">
         <v>22</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F15" s="3">
         <v>9658216112</v>
@@ -1859,13 +1887,13 @@
         <v>35168</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J15" s="8" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="K15" s="9">
         <v>0.9</v>
@@ -1876,19 +1904,20 @@
       <c r="M15" s="9">
         <v>0.9</v>
       </c>
-      <c r="N15" s="6">
-        <v>44481</v>
-      </c>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="N15" s="3">
+        <v>1</v>
+      </c>
+      <c r="P15" s="19"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C16" s="3">
         <v>33</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F16" s="3">
         <v>9685431232</v>
@@ -1897,13 +1926,13 @@
         <v>35240</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J16" s="8" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="K16" s="9">
         <v>0.85</v>
@@ -1914,19 +1943,20 @@
       <c r="M16" s="9">
         <v>0.85</v>
       </c>
-      <c r="N16" s="6">
-        <v>44481</v>
-      </c>
-    </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="N16" s="3">
+        <v>0</v>
+      </c>
+      <c r="P16" s="19"/>
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C17" s="3">
         <v>44</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F17" s="3">
         <v>9661255461</v>
@@ -1935,13 +1965,13 @@
         <v>35299</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J17" s="8" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="K17" s="9">
         <v>0.95</v>
@@ -1952,19 +1982,21 @@
       <c r="M17" s="9">
         <v>0.95</v>
       </c>
-      <c r="N17" s="6">
-        <v>44481</v>
-      </c>
-    </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="N17" s="3">
+        <v>1</v>
+      </c>
+      <c r="O17" s="18"/>
+      <c r="P17" s="19"/>
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C18" s="3">
         <v>55</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F18" s="3">
         <v>9826311322</v>
@@ -1973,13 +2005,13 @@
         <v>35354</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J18" s="8" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="K18" s="9">
         <v>0.82</v>
@@ -1990,11 +2022,12 @@
       <c r="M18" s="9">
         <v>0.82</v>
       </c>
-      <c r="N18" s="6">
-        <v>44481</v>
-      </c>
-    </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="N18" s="3">
+        <v>0</v>
+      </c>
+      <c r="P18" s="19"/>
+    </row>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
@@ -2004,7 +2037,7 @@
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
@@ -2014,7 +2047,7 @@
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -2024,53 +2057,50 @@
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B22" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="H22" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>139</v>
-      </c>
       <c r="I22" s="2" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="M22" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C23" s="3">
         <v>1</v>
       </c>
       <c r="D23" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E23" s="3" t="s">
         <v>42</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>43</v>
       </c>
       <c r="F23" s="3">
         <v>9986236566</v>
@@ -2079,33 +2109,30 @@
         <v>27529</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="J23" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="L23" s="3">
         <v>20</v>
       </c>
-      <c r="M23" s="6">
-        <v>44481</v>
-      </c>
-    </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C24" s="3">
         <v>2</v>
       </c>
       <c r="D24" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E24" s="3" t="s">
         <v>44</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>45</v>
       </c>
       <c r="F24" s="3">
         <v>9866115135</v>
@@ -2114,33 +2141,30 @@
         <v>26343</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="J24" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="L24" s="3">
         <v>25</v>
       </c>
-      <c r="M24" s="6">
-        <v>44481</v>
-      </c>
-    </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C25" s="3">
         <v>3</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F25" s="3">
         <v>9751531355</v>
@@ -2149,33 +2173,30 @@
         <v>31180</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="J25" s="8" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="L25" s="3">
         <v>15</v>
       </c>
-      <c r="M25" s="6">
-        <v>44481</v>
-      </c>
-    </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C26" s="3">
         <v>4</v>
       </c>
       <c r="D26" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E26" s="3" t="s">
         <v>47</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>48</v>
       </c>
       <c r="F26" s="3">
         <v>9581513513</v>
@@ -2184,33 +2205,30 @@
         <v>28865</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="J26" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="L26" s="3">
         <v>25</v>
       </c>
-      <c r="M26" s="6">
-        <v>44481</v>
-      </c>
-    </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C27" s="3">
         <v>5</v>
       </c>
       <c r="D27" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E27" s="3" t="s">
         <v>49</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>50</v>
       </c>
       <c r="F27" s="3">
         <v>9435132153</v>
@@ -2219,25 +2237,22 @@
         <v>30174</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="J27" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="L27" s="3">
         <v>18</v>
       </c>
-      <c r="M27" s="6">
-        <v>44481</v>
-      </c>
-    </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
@@ -2247,7 +2262,7 @@
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
@@ -2257,7 +2272,7 @@
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
@@ -2267,31 +2282,33 @@
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B31" s="5" t="s">
-        <v>127</v>
+        <v>153</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E31" s="1"/>
+        <v>35</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>150</v>
+      </c>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C32" s="3">
         <v>1101</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E32" s="1"/>
+      <c r="D32" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="E32" s="3"/>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
@@ -2303,9 +2320,9 @@
         <v>1102</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E33" s="1"/>
+        <v>32</v>
+      </c>
+      <c r="E33" s="3"/>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
@@ -2317,9 +2334,9 @@
         <v>1103</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E34" s="1"/>
+        <v>33</v>
+      </c>
+      <c r="E34" s="3"/>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
@@ -2331,9 +2348,9 @@
         <v>1104</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="E35" s="1"/>
+        <v>63</v>
+      </c>
+      <c r="E35" s="3"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
@@ -2345,9 +2362,9 @@
         <v>1105</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E36" s="1"/>
+        <v>34</v>
+      </c>
+      <c r="E36" s="3"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
@@ -2386,40 +2403,40 @@
     </row>
     <row r="40" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B40" s="5" t="s">
-        <v>128</v>
+        <v>154</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G40" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J40" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="H40" s="2" t="s">
+      <c r="K40" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="I40" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J40" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="K40" s="2" t="s">
-        <v>94</v>
-      </c>
       <c r="L40" s="2" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="M40" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.25">
@@ -2433,7 +2450,7 @@
         <v>1</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G41" s="6">
         <v>44642</v>
@@ -2445,16 +2462,16 @@
         <v>50</v>
       </c>
       <c r="J41" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="K41" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="L41" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="M41" s="3" t="s">
         <v>95</v>
-      </c>
-      <c r="K41" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="L41" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="M41" s="3" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="42" spans="2:13" x14ac:dyDescent="0.25">
@@ -2468,7 +2485,7 @@
         <v>2</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G42" s="6">
         <v>44612</v>
@@ -2480,16 +2497,16 @@
         <v>50</v>
       </c>
       <c r="J42" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K42" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="L42" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="M42" s="3" t="s">
         <v>96</v>
-      </c>
-      <c r="L42" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="M42" s="3" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="43" spans="2:13" x14ac:dyDescent="0.25">
@@ -2503,7 +2520,7 @@
         <v>3</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G43" s="6">
         <v>44611</v>
@@ -2515,16 +2532,16 @@
         <v>50</v>
       </c>
       <c r="J43" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K43" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="L43" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="M43" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="44" spans="2:13" x14ac:dyDescent="0.25">
@@ -2538,7 +2555,7 @@
         <v>4</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G44" s="6">
         <v>44645</v>
@@ -2550,16 +2567,16 @@
         <v>50</v>
       </c>
       <c r="J44" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K44" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="L44" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="M44" s="3" t="s">
         <v>96</v>
-      </c>
-      <c r="L44" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="M44" s="3" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="45" spans="2:13" x14ac:dyDescent="0.25">
@@ -2573,7 +2590,7 @@
         <v>5</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G45" s="6">
         <v>44540</v>
@@ -2585,16 +2602,16 @@
         <v>50</v>
       </c>
       <c r="J45" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K45" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="L45" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="M45" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="46" spans="2:13" x14ac:dyDescent="0.25">
@@ -2631,34 +2648,34 @@
     </row>
     <row r="49" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B49" s="5" t="s">
-        <v>129</v>
+        <v>155</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="E49" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G49" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F49" s="2" t="s">
+      <c r="H49" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G49" s="2" t="s">
+      <c r="I49" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H49" s="2" t="s">
+      <c r="J49" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I49" s="2" t="s">
+      <c r="K49" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="J49" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K49" s="2" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="50" spans="2:11" x14ac:dyDescent="0.25">
@@ -2669,25 +2686,25 @@
         <v>1101</v>
       </c>
       <c r="E50" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G50" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="F50" s="3" t="s">
+      <c r="H50" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="G50" s="3" t="s">
+      <c r="I50" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="H50" s="3" t="s">
+      <c r="J50" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="I50" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="J50" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="K50" s="3" t="s">
-        <v>97</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" spans="2:11" x14ac:dyDescent="0.25">
@@ -2698,10 +2715,10 @@
         <v>1102</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="G51" s="3" t="s">
         <v>83</v>
@@ -2713,10 +2730,10 @@
         <v>81</v>
       </c>
       <c r="J51" s="3" t="s">
-        <v>18</v>
+        <v>80</v>
       </c>
       <c r="K51" s="3" t="s">
-        <v>98</v>
+        <v>17</v>
       </c>
     </row>
     <row r="52" spans="2:11" x14ac:dyDescent="0.25">
@@ -2727,25 +2744,25 @@
         <v>1103</v>
       </c>
       <c r="E52" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G52" s="3" t="s">
         <v>65</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>68</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>67</v>
       </c>
       <c r="I52" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="J52" s="3" t="s">
-        <v>19</v>
+        <v>68</v>
       </c>
       <c r="K52" s="3" t="s">
-        <v>99</v>
+        <v>18</v>
       </c>
     </row>
     <row r="53" spans="2:11" x14ac:dyDescent="0.25">
@@ -2756,25 +2773,25 @@
         <v>1104</v>
       </c>
       <c r="E53" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="G53" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="F53" s="3" t="s">
+      <c r="H53" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="G53" s="3" t="s">
+      <c r="I53" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="H53" s="3" t="s">
+      <c r="J53" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="I53" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="J53" s="3" t="s">
-        <v>18</v>
-      </c>
       <c r="K53" s="3" t="s">
-        <v>98</v>
+        <v>17</v>
       </c>
     </row>
     <row r="54" spans="2:11" x14ac:dyDescent="0.25">
@@ -2785,25 +2802,25 @@
         <v>1105</v>
       </c>
       <c r="E54" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G54" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="F54" s="3" t="s">
+      <c r="H54" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="G54" s="3" t="s">
+      <c r="I54" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="H54" s="3" t="s">
+      <c r="J54" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="I54" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="J54" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="K54" s="3" t="s">
-        <v>99</v>
+        <v>18</v>
       </c>
     </row>
     <row r="55" spans="2:11" x14ac:dyDescent="0.25">
@@ -2838,19 +2855,19 @@
     </row>
     <row r="58" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B58" s="5" t="s">
-        <v>130</v>
+        <v>156</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
@@ -2873,7 +2890,6 @@
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
-      <c r="J59" s="1"/>
     </row>
     <row r="60" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C60" s="3">
@@ -2891,7 +2907,6 @@
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
       <c r="I60" s="4"/>
-      <c r="J60" s="1"/>
     </row>
     <row r="61" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C61" s="3">
@@ -2909,7 +2924,6 @@
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
-      <c r="J61" s="1"/>
     </row>
     <row r="62" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C62" s="3">
@@ -2927,7 +2941,6 @@
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
       <c r="I62" s="4"/>
-      <c r="J62" s="1"/>
     </row>
     <row r="63" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C63" s="3">
@@ -2945,7 +2958,6 @@
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
-      <c r="J63" s="1"/>
     </row>
     <row r="64" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C64" s="3">
@@ -2963,7 +2975,6 @@
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
-      <c r="J64" s="1"/>
     </row>
     <row r="65" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C65" s="3">
@@ -3023,18 +3034,18 @@
     </row>
     <row r="71" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B71" s="10" t="s">
-        <v>108</v>
+        <v>157</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="72" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B72" s="11" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C72" s="3">
         <v>1</v>
@@ -3124,13 +3135,13 @@
     </row>
     <row r="80" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B80" s="10" t="s">
-        <v>123</v>
+        <v>158</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="E80" s="1"/>
       <c r="F80" s="1"/>
@@ -3139,7 +3150,7 @@
     </row>
     <row r="81" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B81" s="11" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C81" s="3">
         <v>1</v>
@@ -3215,27 +3226,27 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="I27" r:id="rId1" xr:uid="{E5F9C7F1-8F67-49CC-ACC3-1755399003D0}"/>
-    <hyperlink ref="I26" r:id="rId2" xr:uid="{1255C950-E64D-4815-8C27-DBC8D606F856}"/>
-    <hyperlink ref="I25" r:id="rId3" xr:uid="{11453443-C51A-4F31-AA91-3D63D523FC61}"/>
-    <hyperlink ref="I24" r:id="rId4" xr:uid="{528DC0C3-6272-400F-A1D8-8E749531D21B}"/>
-    <hyperlink ref="I23" r:id="rId5" xr:uid="{AF5DAA13-0BC2-4D6B-A221-0DC87840E64B}"/>
-    <hyperlink ref="I18" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="I17" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="I16" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="I15" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="I14" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="J18" r:id="rId11" xr:uid="{2AFAE463-C7B5-4D6F-9C99-8C5E69BCAFA0}"/>
-    <hyperlink ref="J17" r:id="rId12" xr:uid="{C2E9E831-21AB-464E-9C64-E5B9532CB98A}"/>
-    <hyperlink ref="J16" r:id="rId13" xr:uid="{A86A7D7B-BB2E-41B0-9C96-166F73553A78}"/>
-    <hyperlink ref="J15" r:id="rId14" xr:uid="{C6524206-FC88-4FD4-AF54-9CAA2232844D}"/>
-    <hyperlink ref="J27" r:id="rId15" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="J26" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="J25" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="J24" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="J23" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="J14" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="D8" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="I27" r:id="rId1"/>
+    <hyperlink ref="I26" r:id="rId2"/>
+    <hyperlink ref="I25" r:id="rId3"/>
+    <hyperlink ref="I24" r:id="rId4"/>
+    <hyperlink ref="I23" r:id="rId5"/>
+    <hyperlink ref="I18" r:id="rId6"/>
+    <hyperlink ref="I17" r:id="rId7"/>
+    <hyperlink ref="I16" r:id="rId8"/>
+    <hyperlink ref="I15" r:id="rId9"/>
+    <hyperlink ref="I14" r:id="rId10"/>
+    <hyperlink ref="J18" r:id="rId11"/>
+    <hyperlink ref="J17" r:id="rId12"/>
+    <hyperlink ref="J16" r:id="rId13"/>
+    <hyperlink ref="J15" r:id="rId14"/>
+    <hyperlink ref="J27" r:id="rId15"/>
+    <hyperlink ref="J26" r:id="rId16"/>
+    <hyperlink ref="J25" r:id="rId17"/>
+    <hyperlink ref="J24" r:id="rId18"/>
+    <hyperlink ref="J23" r:id="rId19"/>
+    <hyperlink ref="J14" r:id="rId20"/>
+    <hyperlink ref="D8" r:id="rId21"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Documentation/E-Pariksha_Database.xlsx
+++ b/Documentation/E-Pariksha_Database.xlsx
@@ -1,37 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pritam\Downloads\ourProject\Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DAC Project\E-Pariksha\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{148997EA-0BF8-4D9F-83FA-780DCBF22221}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="930" windowWidth="28770" windowHeight="15450"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DB_Schema" sheetId="1" r:id="rId1"/>
     <sheet name="Verification_Of_DB_Schema" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="162">
-  <si>
-    <t xml:space="preserve">User_ID </t>
-  </si>
-  <si>
-    <t>Password</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="171">
   <si>
     <t>admin</t>
   </si>
@@ -69,27 +72,6 @@
     <t>mutkule</t>
   </si>
   <si>
-    <t>Question</t>
-  </si>
-  <si>
-    <t>Option1</t>
-  </si>
-  <si>
-    <t>Option2</t>
-  </si>
-  <si>
-    <t>Option3</t>
-  </si>
-  <si>
-    <t>Option4</t>
-  </si>
-  <si>
-    <t>Answer</t>
-  </si>
-  <si>
-    <t>Marks</t>
-  </si>
-  <si>
     <t>sumit27</t>
   </si>
   <si>
@@ -120,75 +102,6 @@
     <t>abhijeet@523</t>
   </si>
   <si>
-    <t>AdvanceJava</t>
-  </si>
-  <si>
-    <t>Database</t>
-  </si>
-  <si>
-    <t>CoreJava</t>
-  </si>
-  <si>
-    <t>COP</t>
-  </si>
-  <si>
-    <t>Subject_Name</t>
-  </si>
-  <si>
-    <t>Exam_Name</t>
-  </si>
-  <si>
-    <t>AdvanceJavaExam</t>
-  </si>
-  <si>
-    <t>DatabaseExam</t>
-  </si>
-  <si>
-    <t>CoreJavaExam</t>
-  </si>
-  <si>
-    <t>COPExam</t>
-  </si>
-  <si>
-    <t>Prachi</t>
-  </si>
-  <si>
-    <t>Godbole</t>
-  </si>
-  <si>
-    <t>Janhvi</t>
-  </si>
-  <si>
-    <t>Deo</t>
-  </si>
-  <si>
-    <t>Dudhani</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saleel </t>
-  </si>
-  <si>
-    <t>Bagde</t>
-  </si>
-  <si>
-    <t>Parag</t>
-  </si>
-  <si>
-    <t>Joshi</t>
-  </si>
-  <si>
-    <t>Prachi99</t>
-  </si>
-  <si>
-    <t>Janhvi98</t>
-  </si>
-  <si>
-    <t>Saleel95</t>
-  </si>
-  <si>
-    <t>Parag94</t>
-  </si>
-  <si>
     <t>prachigodbole@gmail.com</t>
   </si>
   <si>
@@ -201,27 +114,6 @@
     <t>paragjoshi@gmail.com</t>
   </si>
   <si>
-    <t> Which is responsible for getting a connection to the database?</t>
-  </si>
-  <si>
-    <t>Connection</t>
-  </si>
-  <si>
-    <t>Driver</t>
-  </si>
-  <si>
-    <t>Statement</t>
-  </si>
-  <si>
-    <t>ResultSet</t>
-  </si>
-  <si>
-    <t>WebProgramming</t>
-  </si>
-  <si>
-    <t> What is the extension of java code files?</t>
-  </si>
-  <si>
     <t>.js</t>
   </si>
   <si>
@@ -234,9 +126,6 @@
     <t>.java</t>
   </si>
   <si>
-    <t>What should be the first tag in any HTML document?</t>
-  </si>
-  <si>
     <t>&lt;head&gt;</t>
   </si>
   <si>
@@ -249,9 +138,6 @@
     <t>&lt;document&gt;</t>
   </si>
   <si>
-    <t>What is an example of iteration in C?</t>
-  </si>
-  <si>
     <t> for</t>
   </si>
   <si>
@@ -264,21 +150,6 @@
     <t>all of the mentioned</t>
   </si>
   <si>
-    <t>Which one of the following is a type of Data Manipulation Command?</t>
-  </si>
-  <si>
-    <t>All of the above</t>
-  </si>
-  <si>
-    <t>Delete</t>
-  </si>
-  <si>
-    <t>Alter</t>
-  </si>
-  <si>
-    <t>Create</t>
-  </si>
-  <si>
     <t>Project Name</t>
   </si>
   <si>
@@ -288,324 +159,15 @@
     <t>EXAMDB</t>
   </si>
   <si>
-    <t>Active</t>
-  </si>
-  <si>
-    <t>Deactive</t>
-  </si>
-  <si>
-    <t>Exam_Date</t>
-  </si>
-  <si>
-    <t>No_of_Questions</t>
-  </si>
-  <si>
-    <t>Actual_time</t>
-  </si>
-  <si>
-    <t>Login_Time</t>
-  </si>
-  <si>
     <t>30 min</t>
   </si>
   <si>
     <t>45 min</t>
   </si>
   <si>
-    <t>Easy</t>
-  </si>
-  <si>
-    <t>Medium</t>
-  </si>
-  <si>
-    <t>Hard</t>
-  </si>
-  <si>
-    <t>Exam_Level</t>
-  </si>
-  <si>
-    <t>Teacher_Qualification</t>
-  </si>
-  <si>
-    <t>Year_Of_Experiance</t>
-  </si>
-  <si>
-    <t>SSC_Marks</t>
-  </si>
-  <si>
-    <t>HSC_Marks</t>
-  </si>
-  <si>
-    <t>Degree_Marks</t>
-  </si>
-  <si>
-    <t>M.TECH CS</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Teacher_ID </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(FK)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Subject_ID </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(FK)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Question_ID</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (FK)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Exam_ID</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (FK)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Teacher_ID</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF5050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(FK)</t>
-    </r>
-  </si>
-  <si>
     <t>many to many</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Student_ID </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(FK)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Exam_ID </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(FK)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Question_ID </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(PK)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Exam_ID </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(PK)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Subject_ID </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(PK)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Teacher_ID </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(PK)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Student_ID </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(PK)</t>
-    </r>
-  </si>
-  <si>
-    <t>Student_FirstName</t>
-  </si>
-  <si>
-    <t>Student_LastName</t>
-  </si>
-  <si>
-    <t>Student_Mobile</t>
-  </si>
-  <si>
-    <t>Student_Dob</t>
-  </si>
-  <si>
-    <t>Teacher_Dob</t>
-  </si>
-  <si>
-    <t>Teacher_Mobile</t>
-  </si>
-  <si>
-    <t>Teacher_FirstName</t>
-  </si>
-  <si>
-    <t>Teacher_LastName</t>
-  </si>
-  <si>
-    <t>Teacher_Username</t>
-  </si>
-  <si>
-    <t>Teacher_Password</t>
-  </si>
-  <si>
-    <t>Teacher_Email_ID</t>
-  </si>
-  <si>
-    <t>Student_Password</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Student_Username </t>
-  </si>
-  <si>
-    <t>Exam_Status</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Result_ID </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(PK)</t>
-    </r>
-  </si>
-  <si>
     <t>sumitbonde@gmail.com</t>
   </si>
   <si>
@@ -621,83 +183,377 @@
     <t>abhijeetmutkule@gmail.com</t>
   </si>
   <si>
-    <t>Prachi@123</t>
-  </si>
-  <si>
-    <t>Janhvi@211</t>
-  </si>
-  <si>
-    <t>Saleel@451</t>
-  </si>
-  <si>
-    <t>Parag@513</t>
-  </si>
-  <si>
     <t>shrinivasdudhani@gmail.com</t>
   </si>
   <si>
-    <t>Shrinivas@353</t>
-  </si>
-  <si>
-    <t>Shrinivas97</t>
-  </si>
-  <si>
-    <t>Shrinivas</t>
-  </si>
-  <si>
-    <t>Student_Email_ID</t>
-  </si>
-  <si>
     <t>E-PARIKSHA</t>
   </si>
   <si>
-    <t>Is_Active</t>
-  </si>
-  <si>
-    <t>Question_Level</t>
-  </si>
-  <si>
-    <t>Subject_description</t>
-  </si>
-  <si>
-    <t>Student_info_tbl</t>
-  </si>
-  <si>
-    <t>Teacher_info_tbl</t>
-  </si>
-  <si>
-    <t>Subject_info_tbl</t>
-  </si>
-  <si>
-    <t>Exam_info_tbl</t>
-  </si>
-  <si>
-    <t>Questions_info_tbl</t>
-  </si>
-  <si>
-    <t>Result_info_tbl</t>
-  </si>
-  <si>
-    <t>Teacher_Subject_info_tbl</t>
-  </si>
-  <si>
-    <t>Exam_Question_map_info_tbl</t>
-  </si>
-  <si>
-    <t>Admin _info_tbl</t>
-  </si>
-  <si>
-    <t>Admin_info_tbl</t>
-  </si>
-  <si>
-    <t>Year_Of_Experience</t>
+    <t>admin_info_tbl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">user_id </t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>student_info_tbl</t>
+  </si>
+  <si>
+    <t>student_id (pk)</t>
+  </si>
+  <si>
+    <t>student_firstname</t>
+  </si>
+  <si>
+    <t>student_lastname</t>
+  </si>
+  <si>
+    <t>student_mobile</t>
+  </si>
+  <si>
+    <t>student_dob</t>
+  </si>
+  <si>
+    <t xml:space="preserve">student_username </t>
+  </si>
+  <si>
+    <t>student_password</t>
+  </si>
+  <si>
+    <t>student_email_id</t>
+  </si>
+  <si>
+    <t>ssc_marks</t>
+  </si>
+  <si>
+    <t>hsc_marks</t>
+  </si>
+  <si>
+    <t>degree_marks</t>
+  </si>
+  <si>
+    <t>is_active</t>
+  </si>
+  <si>
+    <t>teacher_info_tbl</t>
+  </si>
+  <si>
+    <t>teacher_id (pk)</t>
+  </si>
+  <si>
+    <t>teacher_firstname</t>
+  </si>
+  <si>
+    <t>teacher_lastname</t>
+  </si>
+  <si>
+    <t>teacher_mobile</t>
+  </si>
+  <si>
+    <t>teacher_dob</t>
+  </si>
+  <si>
+    <t>teacher_username</t>
+  </si>
+  <si>
+    <t>teacher_password</t>
+  </si>
+  <si>
+    <t>teacher_email_id</t>
+  </si>
+  <si>
+    <t>teacher_qualification</t>
+  </si>
+  <si>
+    <t>year_of_experience</t>
+  </si>
+  <si>
+    <t>subject_info_tbl</t>
+  </si>
+  <si>
+    <t>subject_id (pk)</t>
+  </si>
+  <si>
+    <t>subject_name</t>
+  </si>
+  <si>
+    <t>subject_description</t>
+  </si>
+  <si>
+    <t>exam_info_tbl</t>
+  </si>
+  <si>
+    <t>exam_id (pk)</t>
+  </si>
+  <si>
+    <t>subject_id (fk)</t>
+  </si>
+  <si>
+    <t>teacher_id (fk)</t>
+  </si>
+  <si>
+    <t>exam_name</t>
+  </si>
+  <si>
+    <t>exam_date</t>
+  </si>
+  <si>
+    <t>no_of_questions</t>
+  </si>
+  <si>
+    <t>marks</t>
+  </si>
+  <si>
+    <t>actual_time</t>
+  </si>
+  <si>
+    <t>login_time</t>
+  </si>
+  <si>
+    <t>exam_status</t>
+  </si>
+  <si>
+    <t>exam_level</t>
+  </si>
+  <si>
+    <t>questions_info_tbl</t>
+  </si>
+  <si>
+    <t>question_id (pk)</t>
+  </si>
+  <si>
+    <t>question_level</t>
+  </si>
+  <si>
+    <t>question</t>
+  </si>
+  <si>
+    <t>option1</t>
+  </si>
+  <si>
+    <t>option2</t>
+  </si>
+  <si>
+    <t>option3</t>
+  </si>
+  <si>
+    <t>option4</t>
+  </si>
+  <si>
+    <t>answer</t>
+  </si>
+  <si>
+    <t>result_info_tbl</t>
+  </si>
+  <si>
+    <t>result_id (pk)</t>
+  </si>
+  <si>
+    <t>student_id (fk)</t>
+  </si>
+  <si>
+    <t>exam_id (fk)</t>
+  </si>
+  <si>
+    <t>teacher_subject_info_tbl</t>
+  </si>
+  <si>
+    <t>exam_question_map_info_tbl</t>
+  </si>
+  <si>
+    <t>question_id (fk)</t>
+  </si>
+  <si>
+    <t>admin _info_tbl</t>
+  </si>
+  <si>
+    <t>13-04-1996</t>
+  </si>
+  <si>
+    <t>24-06-1996</t>
+  </si>
+  <si>
+    <t>22-08-1996</t>
+  </si>
+  <si>
+    <t>16-10-1996</t>
+  </si>
+  <si>
+    <t>year_of_experiance</t>
+  </si>
+  <si>
+    <t>prachi</t>
+  </si>
+  <si>
+    <t>godbole</t>
+  </si>
+  <si>
+    <t>15-05-1975</t>
+  </si>
+  <si>
+    <t>prachi99</t>
+  </si>
+  <si>
+    <t>prachi@123</t>
+  </si>
+  <si>
+    <t>m.tech cs</t>
+  </si>
+  <si>
+    <t>janhvi</t>
+  </si>
+  <si>
+    <t>deo</t>
+  </si>
+  <si>
+    <t>14-02-1972</t>
+  </si>
+  <si>
+    <t>janhvi98</t>
+  </si>
+  <si>
+    <t>janhvi@211</t>
+  </si>
+  <si>
+    <t>shrinivas</t>
+  </si>
+  <si>
+    <t>dudhani</t>
+  </si>
+  <si>
+    <t>13-05-1985</t>
+  </si>
+  <si>
+    <t>shrinivas97</t>
+  </si>
+  <si>
+    <t>shrinivas@353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">saleel </t>
+  </si>
+  <si>
+    <t>bagde</t>
+  </si>
+  <si>
+    <t>saleel95</t>
+  </si>
+  <si>
+    <t>saleel@451</t>
+  </si>
+  <si>
+    <t>parag</t>
+  </si>
+  <si>
+    <t>joshi</t>
+  </si>
+  <si>
+    <t>parag94</t>
+  </si>
+  <si>
+    <t>parag@513</t>
+  </si>
+  <si>
+    <t>advancejava</t>
+  </si>
+  <si>
+    <t>database</t>
+  </si>
+  <si>
+    <t>corejava</t>
+  </si>
+  <si>
+    <t>webprogramming</t>
+  </si>
+  <si>
+    <t>cop</t>
+  </si>
+  <si>
+    <t>advancejavaexam</t>
+  </si>
+  <si>
+    <t>22-03-2022</t>
+  </si>
+  <si>
+    <t>active</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>databaseexam</t>
+  </si>
+  <si>
+    <t>20-02-2022</t>
+  </si>
+  <si>
+    <t>medium</t>
+  </si>
+  <si>
+    <t>corejavaexam</t>
+  </si>
+  <si>
+    <t>19-02-2022</t>
+  </si>
+  <si>
+    <t>hard</t>
+  </si>
+  <si>
+    <t>25-03-2022</t>
+  </si>
+  <si>
+    <t>copexam</t>
+  </si>
+  <si>
+    <t>deactive</t>
+  </si>
+  <si>
+    <t> which is responsible for getting a connection to the database?</t>
+  </si>
+  <si>
+    <t>connection</t>
+  </si>
+  <si>
+    <t>driver</t>
+  </si>
+  <si>
+    <t>statement</t>
+  </si>
+  <si>
+    <t>resultset</t>
+  </si>
+  <si>
+    <t>which one of the following is a type of data manipulation command?</t>
+  </si>
+  <si>
+    <t>create</t>
+  </si>
+  <si>
+    <t>alter</t>
+  </si>
+  <si>
+    <t>delete</t>
+  </si>
+  <si>
+    <t>all of the above</t>
+  </si>
+  <si>
+    <t> what is the extension of java code files?</t>
+  </si>
+  <si>
+    <t>what should be the first tag in any html document?</t>
+  </si>
+  <si>
+    <t>what is an example of iteration in c?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -739,22 +595,6 @@
       <b/>
       <sz val="16"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFF5050"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -878,7 +718,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1217,55 +1057,56 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="B1:N123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:T25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="28.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.42578125" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.44140625" customWidth="1"/>
     <col min="13" max="13" width="14" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:14" ht="21" x14ac:dyDescent="0.4">
       <c r="B1" s="7" t="s">
-        <v>84</v>
+        <v>38</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="2" spans="2:14" ht="21" x14ac:dyDescent="0.35">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="2:14" ht="21" x14ac:dyDescent="0.4">
       <c r="B2" s="7" t="s">
-        <v>85</v>
+        <v>39</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B5" s="10" t="s">
-        <v>160</v>
+        <v>51</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>1</v>
+        <v>53</v>
       </c>
       <c r="E5" s="14"/>
       <c r="F5" s="14"/>
@@ -1278,7 +1119,7 @@
       <c r="M5" s="14"/>
       <c r="N5" s="14"/>
     </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B6" s="12"/>
       <c r="C6" s="14"/>
       <c r="D6" s="14"/>
@@ -1293,48 +1134,48 @@
       <c r="M6" s="14"/>
       <c r="N6" s="14"/>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B7" s="10" t="s">
-        <v>151</v>
+        <v>54</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>117</v>
+        <v>55</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>118</v>
+        <v>56</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>119</v>
+        <v>57</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>120</v>
+        <v>58</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>121</v>
+        <v>59</v>
       </c>
       <c r="H7" s="13" t="s">
-        <v>130</v>
+        <v>60</v>
       </c>
       <c r="I7" s="13" t="s">
-        <v>129</v>
+        <v>61</v>
       </c>
       <c r="J7" s="13" t="s">
-        <v>146</v>
+        <v>62</v>
       </c>
       <c r="K7" s="13" t="s">
-        <v>101</v>
+        <v>63</v>
       </c>
       <c r="L7" s="13" t="s">
-        <v>102</v>
+        <v>64</v>
       </c>
       <c r="M7" s="13" t="s">
-        <v>103</v>
+        <v>65</v>
       </c>
       <c r="N7" s="13" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B8" s="12"/>
       <c r="C8" s="14"/>
       <c r="D8" s="14"/>
@@ -1349,44 +1190,44 @@
       <c r="M8" s="14"/>
       <c r="N8" s="14"/>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B9" s="10" t="s">
-        <v>152</v>
+        <v>67</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>116</v>
+        <v>68</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>124</v>
+        <v>69</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>125</v>
+        <v>70</v>
       </c>
       <c r="F9" s="16" t="s">
-        <v>123</v>
+        <v>71</v>
       </c>
       <c r="G9" s="16" t="s">
-        <v>122</v>
+        <v>72</v>
       </c>
       <c r="H9" s="16" t="s">
-        <v>126</v>
+        <v>73</v>
       </c>
       <c r="I9" s="16" t="s">
-        <v>127</v>
+        <v>74</v>
       </c>
       <c r="J9" s="16" t="s">
-        <v>128</v>
+        <v>75</v>
       </c>
       <c r="K9" s="16" t="s">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="L9" s="16" t="s">
-        <v>161</v>
+        <v>77</v>
       </c>
       <c r="M9" s="17"/>
       <c r="N9" s="14"/>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B10" s="12"/>
       <c r="C10" s="14"/>
       <c r="D10" s="14"/>
@@ -1401,18 +1242,18 @@
       <c r="M10" s="14"/>
       <c r="N10" s="14"/>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
-        <v>153</v>
+        <v>78</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>115</v>
+        <v>79</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>150</v>
+        <v>81</v>
       </c>
       <c r="F11" s="14"/>
       <c r="G11" s="14"/>
@@ -1424,7 +1265,7 @@
       <c r="M11" s="14"/>
       <c r="N11" s="14"/>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B12" s="12"/>
       <c r="C12" s="14"/>
       <c r="D12" s="14"/>
@@ -1439,46 +1280,46 @@
       <c r="M12" s="14"/>
       <c r="N12" s="14"/>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
-        <v>154</v>
+        <v>82</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>114</v>
+        <v>83</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>106</v>
+        <v>84</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>36</v>
+        <v>86</v>
       </c>
       <c r="G13" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="H13" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="I13" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="H13" s="13" t="s">
+      <c r="J13" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="I13" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="J13" s="13" t="s">
+      <c r="K13" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="K13" s="13" t="s">
+      <c r="L13" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="L13" s="13" t="s">
-        <v>131</v>
-      </c>
       <c r="M13" s="13" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="N13" s="14"/>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B14" s="12"/>
       <c r="C14" s="14"/>
       <c r="D14" s="14"/>
@@ -1493,42 +1334,42 @@
       <c r="M14" s="14"/>
       <c r="N14" s="14"/>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
-        <v>155</v>
+        <v>94</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>106</v>
+        <v>84</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>149</v>
+        <v>96</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>14</v>
+        <v>97</v>
       </c>
       <c r="G15" s="13" t="s">
-        <v>15</v>
+        <v>98</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>16</v>
+        <v>99</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>17</v>
+        <v>100</v>
       </c>
       <c r="J15" s="13" t="s">
-        <v>18</v>
+        <v>101</v>
       </c>
       <c r="K15" s="13" t="s">
-        <v>19</v>
+        <v>102</v>
       </c>
       <c r="L15" s="14"/>
       <c r="M15" s="14"/>
       <c r="N15" s="14"/>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B16" s="12"/>
       <c r="C16" s="14"/>
       <c r="D16" s="14"/>
@@ -1543,21 +1384,21 @@
       <c r="M16" s="14"/>
       <c r="N16" s="14"/>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
-        <v>156</v>
+        <v>103</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>132</v>
+        <v>104</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>20</v>
+        <v>89</v>
       </c>
       <c r="F17" s="13" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="G17" s="14"/>
       <c r="H17" s="14"/>
@@ -1568,7 +1409,7 @@
       <c r="M17" s="14"/>
       <c r="N17" s="14"/>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B18" s="12"/>
       <c r="C18" s="14"/>
       <c r="D18" s="14"/>
@@ -1583,15 +1424,15 @@
       <c r="M18" s="14"/>
       <c r="N18" s="14"/>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
-        <v>157</v>
+        <v>107</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>109</v>
+        <v>85</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>106</v>
+        <v>84</v>
       </c>
       <c r="E19" s="14"/>
       <c r="F19" s="14"/>
@@ -1604,7 +1445,7 @@
       <c r="M19" s="14"/>
       <c r="N19" s="14"/>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B20" s="12"/>
       <c r="C20" s="14"/>
       <c r="D20" s="14"/>
@@ -1619,15 +1460,15 @@
       <c r="M20" s="14"/>
       <c r="N20" s="14"/>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B21" s="10" t="s">
-        <v>158</v>
+        <v>108</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E21" s="14"/>
       <c r="F21" s="14"/>
@@ -1640,75 +1481,72 @@
       <c r="M21" s="14"/>
       <c r="N21" s="14"/>
     </row>
-    <row r="120" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="120" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I120" s="1"/>
       <c r="J120" s="1"/>
     </row>
-    <row r="121" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="121" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I121" s="1"/>
       <c r="J121" s="1"/>
     </row>
-    <row r="122" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="122" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I122" s="1"/>
       <c r="J122" s="1"/>
     </row>
-    <row r="123" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="123" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I123" s="1"/>
       <c r="J123" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P86"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="B1:P86"/>
   <sheetViews>
-    <sheetView topLeftCell="G5" workbookViewId="0">
-      <selection activeCell="N31" sqref="N31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="28.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="64" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="27.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.109375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="14" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" t="e">
-        <f>LOWER(A6:N70)</f>
-        <v>#VALUE!</v>
-      </c>
+    <row r="1" spans="2:16" ht="21" x14ac:dyDescent="0.4">
       <c r="B1" s="7" t="s">
-        <v>84</v>
+        <v>38</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" ht="21" x14ac:dyDescent="0.35">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="2:16" ht="21" x14ac:dyDescent="0.4">
       <c r="B2" s="7" t="s">
-        <v>85</v>
+        <v>39</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -1718,15 +1556,15 @@
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B7" s="5" t="s">
-        <v>159</v>
+        <v>110</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>1</v>
+        <v>53</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -1735,12 +1573,12 @@
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C8" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
@@ -1749,7 +1587,7 @@
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -1759,7 +1597,7 @@
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -1769,7 +1607,7 @@
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -1779,7 +1617,7 @@
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -1789,71 +1627,71 @@
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B13" s="5" t="s">
-        <v>151</v>
+        <v>54</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>117</v>
+        <v>55</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>118</v>
+        <v>56</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>119</v>
+        <v>57</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>120</v>
+        <v>58</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>121</v>
+        <v>59</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>130</v>
+        <v>60</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>129</v>
+        <v>61</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>146</v>
+        <v>62</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>101</v>
+        <v>63</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>102</v>
+        <v>64</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>103</v>
+        <v>65</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C14" s="3">
         <v>11</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F14" s="3">
         <v>9988774455</v>
       </c>
       <c r="G14" s="6">
-        <v>35350</v>
+        <v>35409</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="J14" s="8" t="s">
-        <v>133</v>
+        <v>44</v>
       </c>
       <c r="K14" s="9">
         <v>0.92</v>
@@ -1870,30 +1708,30 @@
       <c r="O14" s="18"/>
       <c r="P14" s="19"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C15" s="3">
         <v>22</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F15" s="3">
         <v>9658216112</v>
       </c>
-      <c r="G15" s="6">
-        <v>35168</v>
+      <c r="G15" s="6" t="s">
+        <v>111</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="J15" s="8" t="s">
-        <v>134</v>
+        <v>45</v>
       </c>
       <c r="K15" s="9">
         <v>0.9</v>
@@ -1909,30 +1747,30 @@
       </c>
       <c r="P15" s="19"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C16" s="3">
         <v>33</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F16" s="3">
         <v>9685431232</v>
       </c>
-      <c r="G16" s="6">
-        <v>35240</v>
+      <c r="G16" s="6" t="s">
+        <v>112</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="J16" s="8" t="s">
-        <v>135</v>
+        <v>46</v>
       </c>
       <c r="K16" s="9">
         <v>0.85</v>
@@ -1948,30 +1786,30 @@
       </c>
       <c r="P16" s="19"/>
     </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C17" s="3">
         <v>44</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F17" s="3">
         <v>9661255461</v>
       </c>
-      <c r="G17" s="6">
-        <v>35299</v>
+      <c r="G17" s="6" t="s">
+        <v>113</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="J17" s="8" t="s">
-        <v>136</v>
+        <v>47</v>
       </c>
       <c r="K17" s="9">
         <v>0.95</v>
@@ -1988,30 +1826,30 @@
       <c r="O17" s="18"/>
       <c r="P17" s="19"/>
     </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C18" s="3">
         <v>55</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F18" s="3">
         <v>9826311322</v>
       </c>
-      <c r="G18" s="6">
-        <v>35354</v>
+      <c r="G18" s="6" t="s">
+        <v>114</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="J18" s="8" t="s">
-        <v>137</v>
+        <v>48</v>
       </c>
       <c r="K18" s="9">
         <v>0.82</v>
@@ -2027,7 +1865,7 @@
       </c>
       <c r="P18" s="19"/>
     </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
@@ -2037,7 +1875,7 @@
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
     </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
@@ -2047,7 +1885,7 @@
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
     </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -2057,202 +1895,202 @@
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
     </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B22" s="5" t="s">
-        <v>152</v>
+        <v>67</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>116</v>
+        <v>68</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>124</v>
+        <v>69</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>125</v>
+        <v>70</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>123</v>
+        <v>71</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>122</v>
+        <v>72</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>126</v>
+        <v>73</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>127</v>
+        <v>74</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>128</v>
+        <v>75</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="23" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C23" s="3">
         <v>1</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>41</v>
+        <v>116</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>42</v>
+        <v>117</v>
       </c>
       <c r="F23" s="3">
         <v>9986236566</v>
       </c>
-      <c r="G23" s="6">
-        <v>27529</v>
+      <c r="G23" s="6" t="s">
+        <v>118</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>50</v>
+        <v>119</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>138</v>
+        <v>120</v>
       </c>
       <c r="J23" s="8" t="s">
-        <v>54</v>
+        <v>22</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>104</v>
+        <v>121</v>
       </c>
       <c r="L23" s="3">
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C24" s="3">
         <v>2</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>43</v>
+        <v>122</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>44</v>
+        <v>123</v>
       </c>
       <c r="F24" s="3">
         <v>9866115135</v>
       </c>
-      <c r="G24" s="6">
-        <v>26343</v>
+      <c r="G24" s="6" t="s">
+        <v>124</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>51</v>
+        <v>125</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="J24" s="8" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>104</v>
+        <v>121</v>
       </c>
       <c r="L24" s="3">
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C25" s="3">
         <v>3</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>145</v>
+        <v>127</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>45</v>
+        <v>128</v>
       </c>
       <c r="F25" s="3">
         <v>9751531355</v>
       </c>
-      <c r="G25" s="6">
-        <v>31180</v>
+      <c r="G25" s="6" t="s">
+        <v>129</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="J25" s="8" t="s">
-        <v>142</v>
+        <v>49</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>104</v>
+        <v>121</v>
       </c>
       <c r="L25" s="3">
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C26" s="3">
         <v>4</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>46</v>
+        <v>132</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>47</v>
+        <v>133</v>
       </c>
       <c r="F26" s="3">
         <v>9581513513</v>
       </c>
       <c r="G26" s="6">
-        <v>28865</v>
+        <v>29129</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>52</v>
+        <v>134</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="J26" s="8" t="s">
-        <v>56</v>
+        <v>24</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>104</v>
+        <v>121</v>
       </c>
       <c r="L26" s="3">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C27" s="3">
         <v>5</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>48</v>
+        <v>136</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>49</v>
+        <v>137</v>
       </c>
       <c r="F27" s="3">
         <v>9435132153</v>
       </c>
       <c r="G27" s="6">
-        <v>30174</v>
+        <v>30263</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>53</v>
+        <v>138</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="J27" s="8" t="s">
-        <v>57</v>
+        <v>25</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>104</v>
+        <v>121</v>
       </c>
       <c r="L27" s="3">
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
@@ -2262,7 +2100,7 @@
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
     </row>
-    <row r="29" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
@@ -2272,7 +2110,7 @@
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
     </row>
-    <row r="30" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
@@ -2282,18 +2120,18 @@
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
     </row>
-    <row r="31" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B31" s="5" t="s">
-        <v>153</v>
+        <v>78</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>115</v>
+        <v>79</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>150</v>
+        <v>81</v>
       </c>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
@@ -2301,12 +2139,12 @@
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
     </row>
-    <row r="32" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C32" s="3">
         <v>1101</v>
       </c>
       <c r="D32" s="20" t="s">
-        <v>31</v>
+        <v>140</v>
       </c>
       <c r="E32" s="3"/>
       <c r="F32" s="1"/>
@@ -2315,12 +2153,12 @@
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C33" s="3">
         <v>1102</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>32</v>
+        <v>141</v>
       </c>
       <c r="E33" s="3"/>
       <c r="F33" s="1"/>
@@ -2329,12 +2167,12 @@
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C34" s="3">
         <v>1103</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>33</v>
+        <v>142</v>
       </c>
       <c r="E34" s="3"/>
       <c r="F34" s="1"/>
@@ -2343,12 +2181,12 @@
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
     </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C35" s="3">
         <v>1104</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>63</v>
+        <v>143</v>
       </c>
       <c r="E35" s="3"/>
       <c r="F35" s="1"/>
@@ -2357,12 +2195,12 @@
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
     </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C36" s="3">
         <v>1105</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>34</v>
+        <v>144</v>
       </c>
       <c r="E36" s="3"/>
       <c r="F36" s="1"/>
@@ -2371,7 +2209,7 @@
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
@@ -2381,7 +2219,7 @@
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
@@ -2391,7 +2229,7 @@
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
@@ -2401,45 +2239,45 @@
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
     </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B40" s="5" t="s">
-        <v>154</v>
+        <v>82</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>114</v>
+        <v>83</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>106</v>
+        <v>84</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>36</v>
+        <v>86</v>
       </c>
       <c r="G40" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="I40" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="H40" s="2" t="s">
+      <c r="J40" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="I40" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J40" s="2" t="s">
+      <c r="K40" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="K40" s="2" t="s">
+      <c r="L40" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="L40" s="2" t="s">
-        <v>131</v>
-      </c>
       <c r="M40" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C41" s="3">
         <v>1</v>
       </c>
@@ -2450,10 +2288,10 @@
         <v>1</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G41" s="6">
-        <v>44642</v>
+        <v>145</v>
+      </c>
+      <c r="G41" s="6" t="s">
+        <v>146</v>
       </c>
       <c r="H41" s="3">
         <v>25</v>
@@ -2462,19 +2300,19 @@
         <v>50</v>
       </c>
       <c r="J41" s="3" t="s">
-        <v>93</v>
+        <v>41</v>
       </c>
       <c r="K41" s="3" t="s">
-        <v>94</v>
+        <v>42</v>
       </c>
       <c r="L41" s="3" t="s">
-        <v>87</v>
+        <v>147</v>
       </c>
       <c r="M41" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C42" s="3">
         <v>2</v>
       </c>
@@ -2485,10 +2323,10 @@
         <v>2</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="G42" s="6">
-        <v>44612</v>
+        <v>149</v>
+      </c>
+      <c r="G42" s="6" t="s">
+        <v>150</v>
       </c>
       <c r="H42" s="3">
         <v>25</v>
@@ -2497,19 +2335,19 @@
         <v>50</v>
       </c>
       <c r="J42" s="3" t="s">
-        <v>93</v>
+        <v>41</v>
       </c>
       <c r="K42" s="3" t="s">
-        <v>94</v>
+        <v>42</v>
       </c>
       <c r="L42" s="3" t="s">
-        <v>87</v>
+        <v>147</v>
       </c>
       <c r="M42" s="3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.25">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C43" s="3">
         <v>3</v>
       </c>
@@ -2520,10 +2358,10 @@
         <v>3</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="G43" s="6">
-        <v>44611</v>
+        <v>152</v>
+      </c>
+      <c r="G43" s="6" t="s">
+        <v>153</v>
       </c>
       <c r="H43" s="3">
         <v>25</v>
@@ -2532,19 +2370,19 @@
         <v>50</v>
       </c>
       <c r="J43" s="3" t="s">
-        <v>93</v>
+        <v>41</v>
       </c>
       <c r="K43" s="3" t="s">
-        <v>94</v>
+        <v>42</v>
       </c>
       <c r="L43" s="3" t="s">
-        <v>87</v>
+        <v>147</v>
       </c>
       <c r="M43" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C44" s="3">
         <v>4</v>
       </c>
@@ -2555,10 +2393,10 @@
         <v>4</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="G44" s="6">
-        <v>44645</v>
+        <v>143</v>
+      </c>
+      <c r="G44" s="6" t="s">
+        <v>155</v>
       </c>
       <c r="H44" s="3">
         <v>25</v>
@@ -2567,19 +2405,19 @@
         <v>50</v>
       </c>
       <c r="J44" s="3" t="s">
-        <v>93</v>
+        <v>41</v>
       </c>
       <c r="K44" s="3" t="s">
-        <v>94</v>
+        <v>42</v>
       </c>
       <c r="L44" s="3" t="s">
-        <v>87</v>
+        <v>147</v>
       </c>
       <c r="M44" s="3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.25">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C45" s="3">
         <v>5</v>
       </c>
@@ -2590,10 +2428,10 @@
         <v>5</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>40</v>
+        <v>156</v>
       </c>
       <c r="G45" s="6">
-        <v>44540</v>
+        <v>44481</v>
       </c>
       <c r="H45" s="3">
         <v>25</v>
@@ -2602,19 +2440,19 @@
         <v>50</v>
       </c>
       <c r="J45" s="3" t="s">
-        <v>93</v>
+        <v>41</v>
       </c>
       <c r="K45" s="3" t="s">
-        <v>94</v>
+        <v>42</v>
       </c>
       <c r="L45" s="3" t="s">
-        <v>88</v>
+        <v>157</v>
       </c>
       <c r="M45" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -2625,7 +2463,7 @@
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -2636,7 +2474,7 @@
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
     </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
@@ -2646,39 +2484,39 @@
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
     </row>
-    <row r="49" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B49" s="5" t="s">
-        <v>155</v>
+        <v>94</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>106</v>
+        <v>84</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>149</v>
+        <v>96</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>14</v>
+        <v>97</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>15</v>
+        <v>98</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>16</v>
+        <v>99</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>17</v>
+        <v>100</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>18</v>
+        <v>101</v>
       </c>
       <c r="K49" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="50" spans="2:11" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="50" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C50" s="3">
         <v>1</v>
       </c>
@@ -2686,28 +2524,28 @@
         <v>1101</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>95</v>
+        <v>148</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>58</v>
+        <v>158</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>59</v>
+        <v>159</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>60</v>
+        <v>160</v>
       </c>
       <c r="I50" s="3" t="s">
-        <v>61</v>
+        <v>161</v>
       </c>
       <c r="J50" s="3" t="s">
-        <v>62</v>
+        <v>162</v>
       </c>
       <c r="K50" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="51" spans="2:11" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="51" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C51" s="3">
         <v>2</v>
       </c>
@@ -2715,28 +2553,28 @@
         <v>1102</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>96</v>
+        <v>151</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>79</v>
+        <v>163</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>83</v>
+        <v>164</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>82</v>
+        <v>165</v>
       </c>
       <c r="I51" s="3" t="s">
-        <v>81</v>
+        <v>166</v>
       </c>
       <c r="J51" s="3" t="s">
-        <v>80</v>
+        <v>167</v>
       </c>
       <c r="K51" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="52" spans="2:11" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="52" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C52" s="3">
         <v>3</v>
       </c>
@@ -2744,28 +2582,28 @@
         <v>1103</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>97</v>
+        <v>154</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>64</v>
+        <v>168</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>65</v>
+        <v>26</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>67</v>
+        <v>28</v>
       </c>
       <c r="I52" s="3" t="s">
-        <v>66</v>
+        <v>27</v>
       </c>
       <c r="J52" s="3" t="s">
-        <v>68</v>
+        <v>29</v>
       </c>
       <c r="K52" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="53" spans="2:11" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="53" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C53" s="3">
         <v>4</v>
       </c>
@@ -2773,28 +2611,28 @@
         <v>1104</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>96</v>
+        <v>151</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>69</v>
+        <v>169</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="H53" s="3" t="s">
-        <v>71</v>
+        <v>31</v>
       </c>
       <c r="I53" s="3" t="s">
-        <v>72</v>
+        <v>32</v>
       </c>
       <c r="J53" s="3" t="s">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="K53" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="54" spans="2:11" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="54" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C54" s="3">
         <v>5</v>
       </c>
@@ -2802,28 +2640,28 @@
         <v>1105</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>97</v>
+        <v>154</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>74</v>
+        <v>170</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="H54" s="3" t="s">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="I54" s="3" t="s">
-        <v>77</v>
+        <v>36</v>
       </c>
       <c r="J54" s="3" t="s">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="K54" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="55" spans="2:11" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="55" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
@@ -2833,7 +2671,7 @@
       <c r="I55" s="1"/>
       <c r="J55" s="1"/>
     </row>
-    <row r="56" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
@@ -2843,7 +2681,7 @@
       <c r="I56" s="1"/>
       <c r="J56" s="1"/>
     </row>
-    <row r="57" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
@@ -2853,28 +2691,28 @@
       <c r="I57" s="4"/>
       <c r="J57" s="1"/>
     </row>
-    <row r="58" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B58" s="5" t="s">
-        <v>156</v>
+        <v>103</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>132</v>
+        <v>104</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>20</v>
+        <v>89</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
       <c r="J58" s="1"/>
     </row>
-    <row r="59" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C59" s="3">
         <v>1</v>
       </c>
@@ -2891,7 +2729,7 @@
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
     </row>
-    <row r="60" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C60" s="3">
         <v>2</v>
       </c>
@@ -2908,7 +2746,7 @@
       <c r="H60" s="1"/>
       <c r="I60" s="4"/>
     </row>
-    <row r="61" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C61" s="3">
         <v>3</v>
       </c>
@@ -2925,7 +2763,7 @@
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
     </row>
-    <row r="62" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C62" s="3">
         <v>4</v>
       </c>
@@ -2942,7 +2780,7 @@
       <c r="H62" s="1"/>
       <c r="I62" s="4"/>
     </row>
-    <row r="63" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C63" s="3">
         <v>5</v>
       </c>
@@ -2959,7 +2797,7 @@
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
     </row>
-    <row r="64" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C64" s="3">
         <v>6</v>
       </c>
@@ -2976,7 +2814,7 @@
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
     </row>
-    <row r="65" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C65" s="3">
         <v>7</v>
       </c>
@@ -2990,7 +2828,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="66" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C66" s="3">
         <v>8</v>
       </c>
@@ -3004,7 +2842,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C67" s="3">
         <v>9</v>
       </c>
@@ -3018,7 +2856,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C68" s="3">
         <v>10</v>
       </c>
@@ -3032,20 +2870,20 @@
         <v>5</v>
       </c>
     </row>
-    <row r="71" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B71" s="10" t="s">
-        <v>157</v>
+        <v>107</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>109</v>
+        <v>85</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="72" spans="2:8" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="72" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B72" s="11" t="s">
-        <v>110</v>
+        <v>43</v>
       </c>
       <c r="C72" s="3">
         <v>1</v>
@@ -3054,7 +2892,7 @@
         <v>1101</v>
       </c>
     </row>
-    <row r="73" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B73" s="1"/>
       <c r="C73" s="3">
         <v>2</v>
@@ -3063,7 +2901,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="74" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B74" s="1"/>
       <c r="C74" s="3">
         <v>3</v>
@@ -3076,7 +2914,7 @@
       <c r="G74" s="1"/>
       <c r="H74" s="1"/>
     </row>
-    <row r="75" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B75" s="1"/>
       <c r="C75" s="3">
         <v>4</v>
@@ -3089,7 +2927,7 @@
       <c r="G75" s="1"/>
       <c r="H75" s="1"/>
     </row>
-    <row r="76" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B76" s="1"/>
       <c r="C76" s="3">
         <v>1</v>
@@ -3102,7 +2940,7 @@
       <c r="G76" s="1"/>
       <c r="H76" s="1"/>
     </row>
-    <row r="77" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B77" s="1"/>
       <c r="C77" s="3">
         <v>1</v>
@@ -3115,7 +2953,7 @@
       <c r="G77" s="1"/>
       <c r="H77" s="1"/>
     </row>
-    <row r="78" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
@@ -3124,7 +2962,7 @@
       <c r="G78" s="1"/>
       <c r="H78" s="1"/>
     </row>
-    <row r="79" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
@@ -3133,24 +2971,24 @@
       <c r="G79" s="1"/>
       <c r="H79" s="1"/>
     </row>
-    <row r="80" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B80" s="10" t="s">
-        <v>158</v>
+        <v>108</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E80" s="1"/>
       <c r="F80" s="1"/>
       <c r="G80" s="1"/>
       <c r="H80" s="1"/>
     </row>
-    <row r="81" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B81" s="11" t="s">
-        <v>110</v>
+        <v>43</v>
       </c>
       <c r="C81" s="3">
         <v>1</v>
@@ -3163,7 +3001,7 @@
       <c r="G81" s="1"/>
       <c r="H81" s="1"/>
     </row>
-    <row r="82" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B82" s="1"/>
       <c r="C82" s="3">
         <v>2</v>
@@ -3176,7 +3014,7 @@
       <c r="G82" s="1"/>
       <c r="H82" s="1"/>
     </row>
-    <row r="83" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B83" s="1"/>
       <c r="C83" s="3">
         <v>3</v>
@@ -3189,7 +3027,7 @@
       <c r="G83" s="1"/>
       <c r="H83" s="1"/>
     </row>
-    <row r="84" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B84" s="1"/>
       <c r="C84" s="3">
         <v>4</v>
@@ -3202,7 +3040,7 @@
       <c r="G84" s="1"/>
       <c r="H84" s="1"/>
     </row>
-    <row r="85" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B85" s="1"/>
       <c r="C85" s="3">
         <v>5</v>
@@ -3215,7 +3053,7 @@
       <c r="G85" s="1"/>
       <c r="H85" s="1"/>
     </row>
-    <row r="86" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
@@ -3226,27 +3064,27 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="I27" r:id="rId1"/>
-    <hyperlink ref="I26" r:id="rId2"/>
-    <hyperlink ref="I25" r:id="rId3"/>
-    <hyperlink ref="I24" r:id="rId4"/>
-    <hyperlink ref="I23" r:id="rId5"/>
-    <hyperlink ref="I18" r:id="rId6"/>
-    <hyperlink ref="I17" r:id="rId7"/>
-    <hyperlink ref="I16" r:id="rId8"/>
-    <hyperlink ref="I15" r:id="rId9"/>
-    <hyperlink ref="I14" r:id="rId10"/>
-    <hyperlink ref="J18" r:id="rId11"/>
-    <hyperlink ref="J17" r:id="rId12"/>
-    <hyperlink ref="J16" r:id="rId13"/>
-    <hyperlink ref="J15" r:id="rId14"/>
-    <hyperlink ref="J27" r:id="rId15"/>
-    <hyperlink ref="J26" r:id="rId16"/>
-    <hyperlink ref="J25" r:id="rId17"/>
-    <hyperlink ref="J24" r:id="rId18"/>
-    <hyperlink ref="J23" r:id="rId19"/>
-    <hyperlink ref="J14" r:id="rId20"/>
-    <hyperlink ref="D8" r:id="rId21"/>
+    <hyperlink ref="I27" r:id="rId1" display="Parag@513" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="I26" r:id="rId2" display="Saleel@451" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="I25" r:id="rId3" display="Shrinivas@353" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="I24" r:id="rId4" display="Janhvi@211" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="I23" r:id="rId5" display="Prachi@123" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+    <hyperlink ref="I18" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
+    <hyperlink ref="I17" r:id="rId7" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
+    <hyperlink ref="I16" r:id="rId8" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
+    <hyperlink ref="I15" r:id="rId9" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
+    <hyperlink ref="I14" r:id="rId10" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
+    <hyperlink ref="J18" r:id="rId11" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
+    <hyperlink ref="J17" r:id="rId12" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
+    <hyperlink ref="J16" r:id="rId13" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
+    <hyperlink ref="J15" r:id="rId14" xr:uid="{00000000-0004-0000-0100-00000D000000}"/>
+    <hyperlink ref="J27" r:id="rId15" xr:uid="{00000000-0004-0000-0100-00000E000000}"/>
+    <hyperlink ref="J26" r:id="rId16" xr:uid="{00000000-0004-0000-0100-00000F000000}"/>
+    <hyperlink ref="J25" r:id="rId17" xr:uid="{00000000-0004-0000-0100-000010000000}"/>
+    <hyperlink ref="J24" r:id="rId18" xr:uid="{00000000-0004-0000-0100-000011000000}"/>
+    <hyperlink ref="J23" r:id="rId19" xr:uid="{00000000-0004-0000-0100-000012000000}"/>
+    <hyperlink ref="J14" r:id="rId20" xr:uid="{00000000-0004-0000-0100-000013000000}"/>
+    <hyperlink ref="D8" r:id="rId21" xr:uid="{00000000-0004-0000-0100-000014000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Documentation/E-Pariksha_Database.xlsx
+++ b/Documentation/E-Pariksha_Database.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DAC Project\E-Pariksha\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{148997EA-0BF8-4D9F-83FA-780DCBF22221}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20786EF5-181F-4187-A4D8-F6F9C097CC57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DB_Schema" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="172">
   <si>
     <t>admin</t>
   </si>
@@ -547,6 +547,9 @@
   </si>
   <si>
     <t>what is an example of iteration in c?</t>
+  </si>
+  <si>
+    <t>ssc_percen</t>
   </si>
 </sst>
 </file>
@@ -1061,8 +1064,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B1:N123"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:T25"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1163,7 +1166,7 @@
         <v>62</v>
       </c>
       <c r="K7" s="13" t="s">
-        <v>63</v>
+        <v>171</v>
       </c>
       <c r="L7" s="13" t="s">
         <v>64</v>
@@ -1509,7 +1512,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="B1:P86"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>

--- a/Documentation/E-Pariksha_Database.xlsx
+++ b/Documentation/E-Pariksha_Database.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="930" windowWidth="28770" windowHeight="15450"/>
+    <workbookView xWindow="0" yWindow="1380" windowWidth="28770" windowHeight="15450"/>
   </bookViews>
   <sheets>
     <sheet name="DB_Schema" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="165">
   <si>
     <t xml:space="preserve">User_ID </t>
   </si>
@@ -691,6 +691,15 @@
   </si>
   <si>
     <t>Year_Of_Experience</t>
+  </si>
+  <si>
+    <t>SSC_Percentage</t>
+  </si>
+  <si>
+    <t>HSC_Percentage</t>
+  </si>
+  <si>
+    <t>Degree_Percentage</t>
   </si>
 </sst>
 </file>
@@ -1220,25 +1229,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:N123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="28.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16.85546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.42578125" customWidth="1"/>
-    <col min="13" max="13" width="14" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:14" ht="21" x14ac:dyDescent="0.35">
@@ -1322,13 +1331,13 @@
         <v>146</v>
       </c>
       <c r="K7" s="13" t="s">
-        <v>101</v>
+        <v>162</v>
       </c>
       <c r="L7" s="13" t="s">
-        <v>102</v>
+        <v>163</v>
       </c>
       <c r="M7" s="13" t="s">
-        <v>103</v>
+        <v>164</v>
       </c>
       <c r="N7" s="13" t="s">
         <v>148</v>

--- a/Documentation/E-Pariksha_Database.xlsx
+++ b/Documentation/E-Pariksha_Database.xlsx
@@ -1,37 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pritam\Downloads\ourProject\Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DAC Project\E-Pariksha\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20786EF5-181F-4187-A4D8-F6F9C097CC57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1380" windowWidth="28770" windowHeight="15450"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DB_Schema" sheetId="1" r:id="rId1"/>
     <sheet name="Verification_Of_DB_Schema" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="165">
-  <si>
-    <t xml:space="preserve">User_ID </t>
-  </si>
-  <si>
-    <t>Password</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="172">
   <si>
     <t>admin</t>
   </si>
@@ -69,27 +72,6 @@
     <t>mutkule</t>
   </si>
   <si>
-    <t>Question</t>
-  </si>
-  <si>
-    <t>Option1</t>
-  </si>
-  <si>
-    <t>Option2</t>
-  </si>
-  <si>
-    <t>Option3</t>
-  </si>
-  <si>
-    <t>Option4</t>
-  </si>
-  <si>
-    <t>Answer</t>
-  </si>
-  <si>
-    <t>Marks</t>
-  </si>
-  <si>
     <t>sumit27</t>
   </si>
   <si>
@@ -120,75 +102,6 @@
     <t>abhijeet@523</t>
   </si>
   <si>
-    <t>AdvanceJava</t>
-  </si>
-  <si>
-    <t>Database</t>
-  </si>
-  <si>
-    <t>CoreJava</t>
-  </si>
-  <si>
-    <t>COP</t>
-  </si>
-  <si>
-    <t>Subject_Name</t>
-  </si>
-  <si>
-    <t>Exam_Name</t>
-  </si>
-  <si>
-    <t>AdvanceJavaExam</t>
-  </si>
-  <si>
-    <t>DatabaseExam</t>
-  </si>
-  <si>
-    <t>CoreJavaExam</t>
-  </si>
-  <si>
-    <t>COPExam</t>
-  </si>
-  <si>
-    <t>Prachi</t>
-  </si>
-  <si>
-    <t>Godbole</t>
-  </si>
-  <si>
-    <t>Janhvi</t>
-  </si>
-  <si>
-    <t>Deo</t>
-  </si>
-  <si>
-    <t>Dudhani</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saleel </t>
-  </si>
-  <si>
-    <t>Bagde</t>
-  </si>
-  <si>
-    <t>Parag</t>
-  </si>
-  <si>
-    <t>Joshi</t>
-  </si>
-  <si>
-    <t>Prachi99</t>
-  </si>
-  <si>
-    <t>Janhvi98</t>
-  </si>
-  <si>
-    <t>Saleel95</t>
-  </si>
-  <si>
-    <t>Parag94</t>
-  </si>
-  <si>
     <t>prachigodbole@gmail.com</t>
   </si>
   <si>
@@ -201,27 +114,6 @@
     <t>paragjoshi@gmail.com</t>
   </si>
   <si>
-    <t> Which is responsible for getting a connection to the database?</t>
-  </si>
-  <si>
-    <t>Connection</t>
-  </si>
-  <si>
-    <t>Driver</t>
-  </si>
-  <si>
-    <t>Statement</t>
-  </si>
-  <si>
-    <t>ResultSet</t>
-  </si>
-  <si>
-    <t>WebProgramming</t>
-  </si>
-  <si>
-    <t> What is the extension of java code files?</t>
-  </si>
-  <si>
     <t>.js</t>
   </si>
   <si>
@@ -234,9 +126,6 @@
     <t>.java</t>
   </si>
   <si>
-    <t>What should be the first tag in any HTML document?</t>
-  </si>
-  <si>
     <t>&lt;head&gt;</t>
   </si>
   <si>
@@ -249,9 +138,6 @@
     <t>&lt;document&gt;</t>
   </si>
   <si>
-    <t>What is an example of iteration in C?</t>
-  </si>
-  <si>
     <t> for</t>
   </si>
   <si>
@@ -264,21 +150,6 @@
     <t>all of the mentioned</t>
   </si>
   <si>
-    <t>Which one of the following is a type of Data Manipulation Command?</t>
-  </si>
-  <si>
-    <t>All of the above</t>
-  </si>
-  <si>
-    <t>Delete</t>
-  </si>
-  <si>
-    <t>Alter</t>
-  </si>
-  <si>
-    <t>Create</t>
-  </si>
-  <si>
     <t>Project Name</t>
   </si>
   <si>
@@ -288,324 +159,15 @@
     <t>EXAMDB</t>
   </si>
   <si>
-    <t>Active</t>
-  </si>
-  <si>
-    <t>Deactive</t>
-  </si>
-  <si>
-    <t>Exam_Date</t>
-  </si>
-  <si>
-    <t>No_of_Questions</t>
-  </si>
-  <si>
-    <t>Actual_time</t>
-  </si>
-  <si>
-    <t>Login_Time</t>
-  </si>
-  <si>
     <t>30 min</t>
   </si>
   <si>
     <t>45 min</t>
   </si>
   <si>
-    <t>Easy</t>
-  </si>
-  <si>
-    <t>Medium</t>
-  </si>
-  <si>
-    <t>Hard</t>
-  </si>
-  <si>
-    <t>Exam_Level</t>
-  </si>
-  <si>
-    <t>Teacher_Qualification</t>
-  </si>
-  <si>
-    <t>Year_Of_Experiance</t>
-  </si>
-  <si>
-    <t>SSC_Marks</t>
-  </si>
-  <si>
-    <t>HSC_Marks</t>
-  </si>
-  <si>
-    <t>Degree_Marks</t>
-  </si>
-  <si>
-    <t>M.TECH CS</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Teacher_ID </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(FK)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Subject_ID </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(FK)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Question_ID</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (FK)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Exam_ID</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (FK)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Teacher_ID</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF5050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(FK)</t>
-    </r>
-  </si>
-  <si>
     <t>many to many</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Student_ID </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(FK)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Exam_ID </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(FK)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Question_ID </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(PK)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Exam_ID </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(PK)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Subject_ID </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(PK)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Teacher_ID </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(PK)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Student_ID </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(PK)</t>
-    </r>
-  </si>
-  <si>
-    <t>Student_FirstName</t>
-  </si>
-  <si>
-    <t>Student_LastName</t>
-  </si>
-  <si>
-    <t>Student_Mobile</t>
-  </si>
-  <si>
-    <t>Student_Dob</t>
-  </si>
-  <si>
-    <t>Teacher_Dob</t>
-  </si>
-  <si>
-    <t>Teacher_Mobile</t>
-  </si>
-  <si>
-    <t>Teacher_FirstName</t>
-  </si>
-  <si>
-    <t>Teacher_LastName</t>
-  </si>
-  <si>
-    <t>Teacher_Username</t>
-  </si>
-  <si>
-    <t>Teacher_Password</t>
-  </si>
-  <si>
-    <t>Teacher_Email_ID</t>
-  </si>
-  <si>
-    <t>Student_Password</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Student_Username </t>
-  </si>
-  <si>
-    <t>Exam_Status</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Result_ID </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(PK)</t>
-    </r>
-  </si>
-  <si>
     <t>sumitbonde@gmail.com</t>
   </si>
   <si>
@@ -621,92 +183,380 @@
     <t>abhijeetmutkule@gmail.com</t>
   </si>
   <si>
-    <t>Prachi@123</t>
-  </si>
-  <si>
-    <t>Janhvi@211</t>
-  </si>
-  <si>
-    <t>Saleel@451</t>
-  </si>
-  <si>
-    <t>Parag@513</t>
-  </si>
-  <si>
     <t>shrinivasdudhani@gmail.com</t>
   </si>
   <si>
-    <t>Shrinivas@353</t>
-  </si>
-  <si>
-    <t>Shrinivas97</t>
-  </si>
-  <si>
-    <t>Shrinivas</t>
-  </si>
-  <si>
-    <t>Student_Email_ID</t>
-  </si>
-  <si>
     <t>E-PARIKSHA</t>
   </si>
   <si>
-    <t>Is_Active</t>
-  </si>
-  <si>
-    <t>Question_Level</t>
-  </si>
-  <si>
-    <t>Subject_description</t>
-  </si>
-  <si>
-    <t>Student_info_tbl</t>
-  </si>
-  <si>
-    <t>Teacher_info_tbl</t>
-  </si>
-  <si>
-    <t>Subject_info_tbl</t>
-  </si>
-  <si>
-    <t>Exam_info_tbl</t>
-  </si>
-  <si>
-    <t>Questions_info_tbl</t>
-  </si>
-  <si>
-    <t>Result_info_tbl</t>
-  </si>
-  <si>
-    <t>Teacher_Subject_info_tbl</t>
-  </si>
-  <si>
-    <t>Exam_Question_map_info_tbl</t>
-  </si>
-  <si>
-    <t>Admin _info_tbl</t>
-  </si>
-  <si>
-    <t>Admin_info_tbl</t>
-  </si>
-  <si>
-    <t>Year_Of_Experience</t>
-  </si>
-  <si>
-    <t>SSC_Percentage</t>
-  </si>
-  <si>
-    <t>HSC_Percentage</t>
-  </si>
-  <si>
-    <t>Degree_Percentage</t>
+    <t>admin_info_tbl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">user_id </t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>student_info_tbl</t>
+  </si>
+  <si>
+    <t>student_id (pk)</t>
+  </si>
+  <si>
+    <t>student_firstname</t>
+  </si>
+  <si>
+    <t>student_lastname</t>
+  </si>
+  <si>
+    <t>student_mobile</t>
+  </si>
+  <si>
+    <t>student_dob</t>
+  </si>
+  <si>
+    <t xml:space="preserve">student_username </t>
+  </si>
+  <si>
+    <t>student_password</t>
+  </si>
+  <si>
+    <t>student_email_id</t>
+  </si>
+  <si>
+    <t>ssc_marks</t>
+  </si>
+  <si>
+    <t>hsc_marks</t>
+  </si>
+  <si>
+    <t>degree_marks</t>
+  </si>
+  <si>
+    <t>is_active</t>
+  </si>
+  <si>
+    <t>teacher_info_tbl</t>
+  </si>
+  <si>
+    <t>teacher_id (pk)</t>
+  </si>
+  <si>
+    <t>teacher_firstname</t>
+  </si>
+  <si>
+    <t>teacher_lastname</t>
+  </si>
+  <si>
+    <t>teacher_mobile</t>
+  </si>
+  <si>
+    <t>teacher_dob</t>
+  </si>
+  <si>
+    <t>teacher_username</t>
+  </si>
+  <si>
+    <t>teacher_password</t>
+  </si>
+  <si>
+    <t>teacher_email_id</t>
+  </si>
+  <si>
+    <t>teacher_qualification</t>
+  </si>
+  <si>
+    <t>year_of_experience</t>
+  </si>
+  <si>
+    <t>subject_info_tbl</t>
+  </si>
+  <si>
+    <t>subject_id (pk)</t>
+  </si>
+  <si>
+    <t>subject_name</t>
+  </si>
+  <si>
+    <t>subject_description</t>
+  </si>
+  <si>
+    <t>exam_info_tbl</t>
+  </si>
+  <si>
+    <t>exam_id (pk)</t>
+  </si>
+  <si>
+    <t>subject_id (fk)</t>
+  </si>
+  <si>
+    <t>teacher_id (fk)</t>
+  </si>
+  <si>
+    <t>exam_name</t>
+  </si>
+  <si>
+    <t>exam_date</t>
+  </si>
+  <si>
+    <t>no_of_questions</t>
+  </si>
+  <si>
+    <t>marks</t>
+  </si>
+  <si>
+    <t>actual_time</t>
+  </si>
+  <si>
+    <t>login_time</t>
+  </si>
+  <si>
+    <t>exam_status</t>
+  </si>
+  <si>
+    <t>exam_level</t>
+  </si>
+  <si>
+    <t>questions_info_tbl</t>
+  </si>
+  <si>
+    <t>question_id (pk)</t>
+  </si>
+  <si>
+    <t>question_level</t>
+  </si>
+  <si>
+    <t>question</t>
+  </si>
+  <si>
+    <t>option1</t>
+  </si>
+  <si>
+    <t>option2</t>
+  </si>
+  <si>
+    <t>option3</t>
+  </si>
+  <si>
+    <t>option4</t>
+  </si>
+  <si>
+    <t>answer</t>
+  </si>
+  <si>
+    <t>result_info_tbl</t>
+  </si>
+  <si>
+    <t>result_id (pk)</t>
+  </si>
+  <si>
+    <t>student_id (fk)</t>
+  </si>
+  <si>
+    <t>exam_id (fk)</t>
+  </si>
+  <si>
+    <t>teacher_subject_info_tbl</t>
+  </si>
+  <si>
+    <t>exam_question_map_info_tbl</t>
+  </si>
+  <si>
+    <t>question_id (fk)</t>
+  </si>
+  <si>
+    <t>admin _info_tbl</t>
+  </si>
+  <si>
+    <t>13-04-1996</t>
+  </si>
+  <si>
+    <t>24-06-1996</t>
+  </si>
+  <si>
+    <t>22-08-1996</t>
+  </si>
+  <si>
+    <t>16-10-1996</t>
+  </si>
+  <si>
+    <t>year_of_experiance</t>
+  </si>
+  <si>
+    <t>prachi</t>
+  </si>
+  <si>
+    <t>godbole</t>
+  </si>
+  <si>
+    <t>15-05-1975</t>
+  </si>
+  <si>
+    <t>prachi99</t>
+  </si>
+  <si>
+    <t>prachi@123</t>
+  </si>
+  <si>
+    <t>m.tech cs</t>
+  </si>
+  <si>
+    <t>janhvi</t>
+  </si>
+  <si>
+    <t>deo</t>
+  </si>
+  <si>
+    <t>14-02-1972</t>
+  </si>
+  <si>
+    <t>janhvi98</t>
+  </si>
+  <si>
+    <t>janhvi@211</t>
+  </si>
+  <si>
+    <t>shrinivas</t>
+  </si>
+  <si>
+    <t>dudhani</t>
+  </si>
+  <si>
+    <t>13-05-1985</t>
+  </si>
+  <si>
+    <t>shrinivas97</t>
+  </si>
+  <si>
+    <t>shrinivas@353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">saleel </t>
+  </si>
+  <si>
+    <t>bagde</t>
+  </si>
+  <si>
+    <t>saleel95</t>
+  </si>
+  <si>
+    <t>saleel@451</t>
+  </si>
+  <si>
+    <t>parag</t>
+  </si>
+  <si>
+    <t>joshi</t>
+  </si>
+  <si>
+    <t>parag94</t>
+  </si>
+  <si>
+    <t>parag@513</t>
+  </si>
+  <si>
+    <t>advancejava</t>
+  </si>
+  <si>
+    <t>database</t>
+  </si>
+  <si>
+    <t>corejava</t>
+  </si>
+  <si>
+    <t>webprogramming</t>
+  </si>
+  <si>
+    <t>cop</t>
+  </si>
+  <si>
+    <t>advancejavaexam</t>
+  </si>
+  <si>
+    <t>22-03-2022</t>
+  </si>
+  <si>
+    <t>active</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>databaseexam</t>
+  </si>
+  <si>
+    <t>20-02-2022</t>
+  </si>
+  <si>
+    <t>medium</t>
+  </si>
+  <si>
+    <t>corejavaexam</t>
+  </si>
+  <si>
+    <t>19-02-2022</t>
+  </si>
+  <si>
+    <t>hard</t>
+  </si>
+  <si>
+    <t>25-03-2022</t>
+  </si>
+  <si>
+    <t>copexam</t>
+  </si>
+  <si>
+    <t>deactive</t>
+  </si>
+  <si>
+    <t> which is responsible for getting a connection to the database?</t>
+  </si>
+  <si>
+    <t>connection</t>
+  </si>
+  <si>
+    <t>driver</t>
+  </si>
+  <si>
+    <t>statement</t>
+  </si>
+  <si>
+    <t>resultset</t>
+  </si>
+  <si>
+    <t>which one of the following is a type of data manipulation command?</t>
+  </si>
+  <si>
+    <t>create</t>
+  </si>
+  <si>
+    <t>alter</t>
+  </si>
+  <si>
+    <t>delete</t>
+  </si>
+  <si>
+    <t>all of the above</t>
+  </si>
+  <si>
+    <t> what is the extension of java code files?</t>
+  </si>
+  <si>
+    <t>what should be the first tag in any html document?</t>
+  </si>
+  <si>
+    <t>what is an example of iteration in c?</t>
+  </si>
+  <si>
+    <t>ssc_percen</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -748,22 +598,6 @@
       <b/>
       <sz val="16"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFF5050"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -887,7 +721,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1226,55 +1060,56 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="B1:N123"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="28.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.44140625" customWidth="1"/>
+    <col min="13" max="13" width="14" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:14" ht="21" x14ac:dyDescent="0.4">
       <c r="B1" s="7" t="s">
-        <v>84</v>
+        <v>38</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="2" spans="2:14" ht="21" x14ac:dyDescent="0.35">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="2:14" ht="21" x14ac:dyDescent="0.4">
       <c r="B2" s="7" t="s">
-        <v>85</v>
+        <v>39</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B5" s="10" t="s">
-        <v>160</v>
+        <v>51</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>1</v>
+        <v>53</v>
       </c>
       <c r="E5" s="14"/>
       <c r="F5" s="14"/>
@@ -1287,7 +1122,7 @@
       <c r="M5" s="14"/>
       <c r="N5" s="14"/>
     </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B6" s="12"/>
       <c r="C6" s="14"/>
       <c r="D6" s="14"/>
@@ -1302,48 +1137,48 @@
       <c r="M6" s="14"/>
       <c r="N6" s="14"/>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B7" s="10" t="s">
-        <v>151</v>
+        <v>54</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>117</v>
+        <v>55</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>118</v>
+        <v>56</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>119</v>
+        <v>57</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>120</v>
+        <v>58</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>121</v>
+        <v>59</v>
       </c>
       <c r="H7" s="13" t="s">
-        <v>130</v>
+        <v>60</v>
       </c>
       <c r="I7" s="13" t="s">
-        <v>129</v>
+        <v>61</v>
       </c>
       <c r="J7" s="13" t="s">
-        <v>146</v>
+        <v>62</v>
       </c>
       <c r="K7" s="13" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="L7" s="13" t="s">
-        <v>163</v>
+        <v>64</v>
       </c>
       <c r="M7" s="13" t="s">
-        <v>164</v>
+        <v>65</v>
       </c>
       <c r="N7" s="13" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B8" s="12"/>
       <c r="C8" s="14"/>
       <c r="D8" s="14"/>
@@ -1358,44 +1193,44 @@
       <c r="M8" s="14"/>
       <c r="N8" s="14"/>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B9" s="10" t="s">
-        <v>152</v>
+        <v>67</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>116</v>
+        <v>68</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>124</v>
+        <v>69</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>125</v>
+        <v>70</v>
       </c>
       <c r="F9" s="16" t="s">
-        <v>123</v>
+        <v>71</v>
       </c>
       <c r="G9" s="16" t="s">
-        <v>122</v>
+        <v>72</v>
       </c>
       <c r="H9" s="16" t="s">
-        <v>126</v>
+        <v>73</v>
       </c>
       <c r="I9" s="16" t="s">
-        <v>127</v>
+        <v>74</v>
       </c>
       <c r="J9" s="16" t="s">
-        <v>128</v>
+        <v>75</v>
       </c>
       <c r="K9" s="16" t="s">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="L9" s="16" t="s">
-        <v>161</v>
+        <v>77</v>
       </c>
       <c r="M9" s="17"/>
       <c r="N9" s="14"/>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B10" s="12"/>
       <c r="C10" s="14"/>
       <c r="D10" s="14"/>
@@ -1410,18 +1245,18 @@
       <c r="M10" s="14"/>
       <c r="N10" s="14"/>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
-        <v>153</v>
+        <v>78</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>115</v>
+        <v>79</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>150</v>
+        <v>81</v>
       </c>
       <c r="F11" s="14"/>
       <c r="G11" s="14"/>
@@ -1433,7 +1268,7 @@
       <c r="M11" s="14"/>
       <c r="N11" s="14"/>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B12" s="12"/>
       <c r="C12" s="14"/>
       <c r="D12" s="14"/>
@@ -1448,46 +1283,46 @@
       <c r="M12" s="14"/>
       <c r="N12" s="14"/>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
-        <v>154</v>
+        <v>82</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>114</v>
+        <v>83</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>106</v>
+        <v>84</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>36</v>
+        <v>86</v>
       </c>
       <c r="G13" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="H13" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="I13" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="H13" s="13" t="s">
+      <c r="J13" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="I13" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="J13" s="13" t="s">
+      <c r="K13" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="K13" s="13" t="s">
+      <c r="L13" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="L13" s="13" t="s">
-        <v>131</v>
-      </c>
       <c r="M13" s="13" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="N13" s="14"/>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B14" s="12"/>
       <c r="C14" s="14"/>
       <c r="D14" s="14"/>
@@ -1502,42 +1337,42 @@
       <c r="M14" s="14"/>
       <c r="N14" s="14"/>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
-        <v>155</v>
+        <v>94</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>106</v>
+        <v>84</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>149</v>
+        <v>96</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>14</v>
+        <v>97</v>
       </c>
       <c r="G15" s="13" t="s">
-        <v>15</v>
+        <v>98</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>16</v>
+        <v>99</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>17</v>
+        <v>100</v>
       </c>
       <c r="J15" s="13" t="s">
-        <v>18</v>
+        <v>101</v>
       </c>
       <c r="K15" s="13" t="s">
-        <v>19</v>
+        <v>102</v>
       </c>
       <c r="L15" s="14"/>
       <c r="M15" s="14"/>
       <c r="N15" s="14"/>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B16" s="12"/>
       <c r="C16" s="14"/>
       <c r="D16" s="14"/>
@@ -1552,21 +1387,21 @@
       <c r="M16" s="14"/>
       <c r="N16" s="14"/>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
-        <v>156</v>
+        <v>103</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>132</v>
+        <v>104</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>20</v>
+        <v>89</v>
       </c>
       <c r="F17" s="13" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="G17" s="14"/>
       <c r="H17" s="14"/>
@@ -1577,7 +1412,7 @@
       <c r="M17" s="14"/>
       <c r="N17" s="14"/>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B18" s="12"/>
       <c r="C18" s="14"/>
       <c r="D18" s="14"/>
@@ -1592,15 +1427,15 @@
       <c r="M18" s="14"/>
       <c r="N18" s="14"/>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
-        <v>157</v>
+        <v>107</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>109</v>
+        <v>85</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>106</v>
+        <v>84</v>
       </c>
       <c r="E19" s="14"/>
       <c r="F19" s="14"/>
@@ -1613,7 +1448,7 @@
       <c r="M19" s="14"/>
       <c r="N19" s="14"/>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B20" s="12"/>
       <c r="C20" s="14"/>
       <c r="D20" s="14"/>
@@ -1628,15 +1463,15 @@
       <c r="M20" s="14"/>
       <c r="N20" s="14"/>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B21" s="10" t="s">
-        <v>158</v>
+        <v>108</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E21" s="14"/>
       <c r="F21" s="14"/>
@@ -1649,75 +1484,72 @@
       <c r="M21" s="14"/>
       <c r="N21" s="14"/>
     </row>
-    <row r="120" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="120" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I120" s="1"/>
       <c r="J120" s="1"/>
     </row>
-    <row r="121" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="121" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I121" s="1"/>
       <c r="J121" s="1"/>
     </row>
-    <row r="122" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="122" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I122" s="1"/>
       <c r="J122" s="1"/>
     </row>
-    <row r="123" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="123" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I123" s="1"/>
       <c r="J123" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P86"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="B1:P86"/>
   <sheetViews>
-    <sheetView topLeftCell="G5" workbookViewId="0">
-      <selection activeCell="N31" sqref="N31"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="28.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="64" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="27.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.109375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="14" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" t="e">
-        <f>LOWER(A6:N70)</f>
-        <v>#VALUE!</v>
-      </c>
+    <row r="1" spans="2:16" ht="21" x14ac:dyDescent="0.4">
       <c r="B1" s="7" t="s">
-        <v>84</v>
+        <v>38</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" ht="21" x14ac:dyDescent="0.35">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="2:16" ht="21" x14ac:dyDescent="0.4">
       <c r="B2" s="7" t="s">
-        <v>85</v>
+        <v>39</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -1727,15 +1559,15 @@
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B7" s="5" t="s">
-        <v>159</v>
+        <v>110</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>1</v>
+        <v>53</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -1744,12 +1576,12 @@
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C8" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
@@ -1758,7 +1590,7 @@
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -1768,7 +1600,7 @@
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -1778,7 +1610,7 @@
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -1788,7 +1620,7 @@
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -1798,71 +1630,71 @@
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B13" s="5" t="s">
-        <v>151</v>
+        <v>54</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>117</v>
+        <v>55</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>118</v>
+        <v>56</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>119</v>
+        <v>57</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>120</v>
+        <v>58</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>121</v>
+        <v>59</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>130</v>
+        <v>60</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>129</v>
+        <v>61</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>146</v>
+        <v>62</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>101</v>
+        <v>63</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>102</v>
+        <v>64</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>103</v>
+        <v>65</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C14" s="3">
         <v>11</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F14" s="3">
         <v>9988774455</v>
       </c>
       <c r="G14" s="6">
-        <v>35350</v>
+        <v>35409</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="J14" s="8" t="s">
-        <v>133</v>
+        <v>44</v>
       </c>
       <c r="K14" s="9">
         <v>0.92</v>
@@ -1879,30 +1711,30 @@
       <c r="O14" s="18"/>
       <c r="P14" s="19"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C15" s="3">
         <v>22</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F15" s="3">
         <v>9658216112</v>
       </c>
-      <c r="G15" s="6">
-        <v>35168</v>
+      <c r="G15" s="6" t="s">
+        <v>111</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="J15" s="8" t="s">
-        <v>134</v>
+        <v>45</v>
       </c>
       <c r="K15" s="9">
         <v>0.9</v>
@@ -1918,30 +1750,30 @@
       </c>
       <c r="P15" s="19"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C16" s="3">
         <v>33</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F16" s="3">
         <v>9685431232</v>
       </c>
-      <c r="G16" s="6">
-        <v>35240</v>
+      <c r="G16" s="6" t="s">
+        <v>112</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="J16" s="8" t="s">
-        <v>135</v>
+        <v>46</v>
       </c>
       <c r="K16" s="9">
         <v>0.85</v>
@@ -1957,30 +1789,30 @@
       </c>
       <c r="P16" s="19"/>
     </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C17" s="3">
         <v>44</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F17" s="3">
         <v>9661255461</v>
       </c>
-      <c r="G17" s="6">
-        <v>35299</v>
+      <c r="G17" s="6" t="s">
+        <v>113</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="J17" s="8" t="s">
-        <v>136</v>
+        <v>47</v>
       </c>
       <c r="K17" s="9">
         <v>0.95</v>
@@ -1997,30 +1829,30 @@
       <c r="O17" s="18"/>
       <c r="P17" s="19"/>
     </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C18" s="3">
         <v>55</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F18" s="3">
         <v>9826311322</v>
       </c>
-      <c r="G18" s="6">
-        <v>35354</v>
+      <c r="G18" s="6" t="s">
+        <v>114</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="J18" s="8" t="s">
-        <v>137</v>
+        <v>48</v>
       </c>
       <c r="K18" s="9">
         <v>0.82</v>
@@ -2036,7 +1868,7 @@
       </c>
       <c r="P18" s="19"/>
     </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
@@ -2046,7 +1878,7 @@
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
     </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
@@ -2056,7 +1888,7 @@
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
     </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -2066,202 +1898,202 @@
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
     </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B22" s="5" t="s">
-        <v>152</v>
+        <v>67</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>116</v>
+        <v>68</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>124</v>
+        <v>69</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>125</v>
+        <v>70</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>123</v>
+        <v>71</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>122</v>
+        <v>72</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>126</v>
+        <v>73</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>127</v>
+        <v>74</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>128</v>
+        <v>75</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="23" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C23" s="3">
         <v>1</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>41</v>
+        <v>116</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>42</v>
+        <v>117</v>
       </c>
       <c r="F23" s="3">
         <v>9986236566</v>
       </c>
-      <c r="G23" s="6">
-        <v>27529</v>
+      <c r="G23" s="6" t="s">
+        <v>118</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>50</v>
+        <v>119</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>138</v>
+        <v>120</v>
       </c>
       <c r="J23" s="8" t="s">
-        <v>54</v>
+        <v>22</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>104</v>
+        <v>121</v>
       </c>
       <c r="L23" s="3">
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C24" s="3">
         <v>2</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>43</v>
+        <v>122</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>44</v>
+        <v>123</v>
       </c>
       <c r="F24" s="3">
         <v>9866115135</v>
       </c>
-      <c r="G24" s="6">
-        <v>26343</v>
+      <c r="G24" s="6" t="s">
+        <v>124</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>51</v>
+        <v>125</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="J24" s="8" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>104</v>
+        <v>121</v>
       </c>
       <c r="L24" s="3">
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C25" s="3">
         <v>3</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>145</v>
+        <v>127</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>45</v>
+        <v>128</v>
       </c>
       <c r="F25" s="3">
         <v>9751531355</v>
       </c>
-      <c r="G25" s="6">
-        <v>31180</v>
+      <c r="G25" s="6" t="s">
+        <v>129</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="J25" s="8" t="s">
-        <v>142</v>
+        <v>49</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>104</v>
+        <v>121</v>
       </c>
       <c r="L25" s="3">
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C26" s="3">
         <v>4</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>46</v>
+        <v>132</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>47</v>
+        <v>133</v>
       </c>
       <c r="F26" s="3">
         <v>9581513513</v>
       </c>
       <c r="G26" s="6">
-        <v>28865</v>
+        <v>29129</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>52</v>
+        <v>134</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="J26" s="8" t="s">
-        <v>56</v>
+        <v>24</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>104</v>
+        <v>121</v>
       </c>
       <c r="L26" s="3">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C27" s="3">
         <v>5</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>48</v>
+        <v>136</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>49</v>
+        <v>137</v>
       </c>
       <c r="F27" s="3">
         <v>9435132153</v>
       </c>
       <c r="G27" s="6">
-        <v>30174</v>
+        <v>30263</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>53</v>
+        <v>138</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="J27" s="8" t="s">
-        <v>57</v>
+        <v>25</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>104</v>
+        <v>121</v>
       </c>
       <c r="L27" s="3">
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
@@ -2271,7 +2103,7 @@
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
     </row>
-    <row r="29" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
@@ -2281,7 +2113,7 @@
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
     </row>
-    <row r="30" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
@@ -2291,18 +2123,18 @@
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
     </row>
-    <row r="31" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B31" s="5" t="s">
-        <v>153</v>
+        <v>78</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>115</v>
+        <v>79</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>150</v>
+        <v>81</v>
       </c>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
@@ -2310,12 +2142,12 @@
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
     </row>
-    <row r="32" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C32" s="3">
         <v>1101</v>
       </c>
       <c r="D32" s="20" t="s">
-        <v>31</v>
+        <v>140</v>
       </c>
       <c r="E32" s="3"/>
       <c r="F32" s="1"/>
@@ -2324,12 +2156,12 @@
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C33" s="3">
         <v>1102</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>32</v>
+        <v>141</v>
       </c>
       <c r="E33" s="3"/>
       <c r="F33" s="1"/>
@@ -2338,12 +2170,12 @@
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C34" s="3">
         <v>1103</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>33</v>
+        <v>142</v>
       </c>
       <c r="E34" s="3"/>
       <c r="F34" s="1"/>
@@ -2352,12 +2184,12 @@
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
     </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C35" s="3">
         <v>1104</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>63</v>
+        <v>143</v>
       </c>
       <c r="E35" s="3"/>
       <c r="F35" s="1"/>
@@ -2366,12 +2198,12 @@
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
     </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C36" s="3">
         <v>1105</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>34</v>
+        <v>144</v>
       </c>
       <c r="E36" s="3"/>
       <c r="F36" s="1"/>
@@ -2380,7 +2212,7 @@
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
@@ -2390,7 +2222,7 @@
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
@@ -2400,7 +2232,7 @@
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
@@ -2410,45 +2242,45 @@
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
     </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B40" s="5" t="s">
-        <v>154</v>
+        <v>82</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>114</v>
+        <v>83</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>106</v>
+        <v>84</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>36</v>
+        <v>86</v>
       </c>
       <c r="G40" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="I40" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="H40" s="2" t="s">
+      <c r="J40" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="I40" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J40" s="2" t="s">
+      <c r="K40" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="K40" s="2" t="s">
+      <c r="L40" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="L40" s="2" t="s">
-        <v>131</v>
-      </c>
       <c r="M40" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C41" s="3">
         <v>1</v>
       </c>
@@ -2459,10 +2291,10 @@
         <v>1</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G41" s="6">
-        <v>44642</v>
+        <v>145</v>
+      </c>
+      <c r="G41" s="6" t="s">
+        <v>146</v>
       </c>
       <c r="H41" s="3">
         <v>25</v>
@@ -2471,19 +2303,19 @@
         <v>50</v>
       </c>
       <c r="J41" s="3" t="s">
-        <v>93</v>
+        <v>41</v>
       </c>
       <c r="K41" s="3" t="s">
-        <v>94</v>
+        <v>42</v>
       </c>
       <c r="L41" s="3" t="s">
-        <v>87</v>
+        <v>147</v>
       </c>
       <c r="M41" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C42" s="3">
         <v>2</v>
       </c>
@@ -2494,10 +2326,10 @@
         <v>2</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="G42" s="6">
-        <v>44612</v>
+        <v>149</v>
+      </c>
+      <c r="G42" s="6" t="s">
+        <v>150</v>
       </c>
       <c r="H42" s="3">
         <v>25</v>
@@ -2506,19 +2338,19 @@
         <v>50</v>
       </c>
       <c r="J42" s="3" t="s">
-        <v>93</v>
+        <v>41</v>
       </c>
       <c r="K42" s="3" t="s">
-        <v>94</v>
+        <v>42</v>
       </c>
       <c r="L42" s="3" t="s">
-        <v>87</v>
+        <v>147</v>
       </c>
       <c r="M42" s="3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.25">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C43" s="3">
         <v>3</v>
       </c>
@@ -2529,10 +2361,10 @@
         <v>3</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="G43" s="6">
-        <v>44611</v>
+        <v>152</v>
+      </c>
+      <c r="G43" s="6" t="s">
+        <v>153</v>
       </c>
       <c r="H43" s="3">
         <v>25</v>
@@ -2541,19 +2373,19 @@
         <v>50</v>
       </c>
       <c r="J43" s="3" t="s">
-        <v>93</v>
+        <v>41</v>
       </c>
       <c r="K43" s="3" t="s">
-        <v>94</v>
+        <v>42</v>
       </c>
       <c r="L43" s="3" t="s">
-        <v>87</v>
+        <v>147</v>
       </c>
       <c r="M43" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C44" s="3">
         <v>4</v>
       </c>
@@ -2564,10 +2396,10 @@
         <v>4</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="G44" s="6">
-        <v>44645</v>
+        <v>143</v>
+      </c>
+      <c r="G44" s="6" t="s">
+        <v>155</v>
       </c>
       <c r="H44" s="3">
         <v>25</v>
@@ -2576,19 +2408,19 @@
         <v>50</v>
       </c>
       <c r="J44" s="3" t="s">
-        <v>93</v>
+        <v>41</v>
       </c>
       <c r="K44" s="3" t="s">
-        <v>94</v>
+        <v>42</v>
       </c>
       <c r="L44" s="3" t="s">
-        <v>87</v>
+        <v>147</v>
       </c>
       <c r="M44" s="3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.25">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C45" s="3">
         <v>5</v>
       </c>
@@ -2599,10 +2431,10 @@
         <v>5</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>40</v>
+        <v>156</v>
       </c>
       <c r="G45" s="6">
-        <v>44540</v>
+        <v>44481</v>
       </c>
       <c r="H45" s="3">
         <v>25</v>
@@ -2611,19 +2443,19 @@
         <v>50</v>
       </c>
       <c r="J45" s="3" t="s">
-        <v>93</v>
+        <v>41</v>
       </c>
       <c r="K45" s="3" t="s">
-        <v>94</v>
+        <v>42</v>
       </c>
       <c r="L45" s="3" t="s">
-        <v>88</v>
+        <v>157</v>
       </c>
       <c r="M45" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -2634,7 +2466,7 @@
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -2645,7 +2477,7 @@
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
     </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
@@ -2655,39 +2487,39 @@
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
     </row>
-    <row r="49" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B49" s="5" t="s">
-        <v>155</v>
+        <v>94</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>106</v>
+        <v>84</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>149</v>
+        <v>96</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>14</v>
+        <v>97</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>15</v>
+        <v>98</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>16</v>
+        <v>99</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>17</v>
+        <v>100</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>18</v>
+        <v>101</v>
       </c>
       <c r="K49" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="50" spans="2:11" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="50" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C50" s="3">
         <v>1</v>
       </c>
@@ -2695,28 +2527,28 @@
         <v>1101</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>95</v>
+        <v>148</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>58</v>
+        <v>158</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>59</v>
+        <v>159</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>60</v>
+        <v>160</v>
       </c>
       <c r="I50" s="3" t="s">
-        <v>61</v>
+        <v>161</v>
       </c>
       <c r="J50" s="3" t="s">
-        <v>62</v>
+        <v>162</v>
       </c>
       <c r="K50" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="51" spans="2:11" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="51" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C51" s="3">
         <v>2</v>
       </c>
@@ -2724,28 +2556,28 @@
         <v>1102</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>96</v>
+        <v>151</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>79</v>
+        <v>163</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>83</v>
+        <v>164</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>82</v>
+        <v>165</v>
       </c>
       <c r="I51" s="3" t="s">
-        <v>81</v>
+        <v>166</v>
       </c>
       <c r="J51" s="3" t="s">
-        <v>80</v>
+        <v>167</v>
       </c>
       <c r="K51" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="52" spans="2:11" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="52" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C52" s="3">
         <v>3</v>
       </c>
@@ -2753,28 +2585,28 @@
         <v>1103</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>97</v>
+        <v>154</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>64</v>
+        <v>168</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>65</v>
+        <v>26</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>67</v>
+        <v>28</v>
       </c>
       <c r="I52" s="3" t="s">
-        <v>66</v>
+        <v>27</v>
       </c>
       <c r="J52" s="3" t="s">
-        <v>68</v>
+        <v>29</v>
       </c>
       <c r="K52" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="53" spans="2:11" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="53" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C53" s="3">
         <v>4</v>
       </c>
@@ -2782,28 +2614,28 @@
         <v>1104</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>96</v>
+        <v>151</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>69</v>
+        <v>169</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="H53" s="3" t="s">
-        <v>71</v>
+        <v>31</v>
       </c>
       <c r="I53" s="3" t="s">
-        <v>72</v>
+        <v>32</v>
       </c>
       <c r="J53" s="3" t="s">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="K53" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="54" spans="2:11" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="54" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C54" s="3">
         <v>5</v>
       </c>
@@ -2811,28 +2643,28 @@
         <v>1105</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>97</v>
+        <v>154</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>74</v>
+        <v>170</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="H54" s="3" t="s">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="I54" s="3" t="s">
-        <v>77</v>
+        <v>36</v>
       </c>
       <c r="J54" s="3" t="s">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="K54" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="55" spans="2:11" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="55" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
@@ -2842,7 +2674,7 @@
       <c r="I55" s="1"/>
       <c r="J55" s="1"/>
     </row>
-    <row r="56" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
@@ -2852,7 +2684,7 @@
       <c r="I56" s="1"/>
       <c r="J56" s="1"/>
     </row>
-    <row r="57" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
@@ -2862,28 +2694,28 @@
       <c r="I57" s="4"/>
       <c r="J57" s="1"/>
     </row>
-    <row r="58" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B58" s="5" t="s">
-        <v>156</v>
+        <v>103</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>132</v>
+        <v>104</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>20</v>
+        <v>89</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
       <c r="J58" s="1"/>
     </row>
-    <row r="59" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C59" s="3">
         <v>1</v>
       </c>
@@ -2900,7 +2732,7 @@
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
     </row>
-    <row r="60" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C60" s="3">
         <v>2</v>
       </c>
@@ -2917,7 +2749,7 @@
       <c r="H60" s="1"/>
       <c r="I60" s="4"/>
     </row>
-    <row r="61" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C61" s="3">
         <v>3</v>
       </c>
@@ -2934,7 +2766,7 @@
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
     </row>
-    <row r="62" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C62" s="3">
         <v>4</v>
       </c>
@@ -2951,7 +2783,7 @@
       <c r="H62" s="1"/>
       <c r="I62" s="4"/>
     </row>
-    <row r="63" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C63" s="3">
         <v>5</v>
       </c>
@@ -2968,7 +2800,7 @@
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
     </row>
-    <row r="64" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C64" s="3">
         <v>6</v>
       </c>
@@ -2985,7 +2817,7 @@
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
     </row>
-    <row r="65" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C65" s="3">
         <v>7</v>
       </c>
@@ -2999,7 +2831,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="66" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C66" s="3">
         <v>8</v>
       </c>
@@ -3013,7 +2845,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C67" s="3">
         <v>9</v>
       </c>
@@ -3027,7 +2859,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C68" s="3">
         <v>10</v>
       </c>
@@ -3041,20 +2873,20 @@
         <v>5</v>
       </c>
     </row>
-    <row r="71" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B71" s="10" t="s">
-        <v>157</v>
+        <v>107</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>109</v>
+        <v>85</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="72" spans="2:8" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="72" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B72" s="11" t="s">
-        <v>110</v>
+        <v>43</v>
       </c>
       <c r="C72" s="3">
         <v>1</v>
@@ -3063,7 +2895,7 @@
         <v>1101</v>
       </c>
     </row>
-    <row r="73" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B73" s="1"/>
       <c r="C73" s="3">
         <v>2</v>
@@ -3072,7 +2904,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="74" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B74" s="1"/>
       <c r="C74" s="3">
         <v>3</v>
@@ -3085,7 +2917,7 @@
       <c r="G74" s="1"/>
       <c r="H74" s="1"/>
     </row>
-    <row r="75" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B75" s="1"/>
       <c r="C75" s="3">
         <v>4</v>
@@ -3098,7 +2930,7 @@
       <c r="G75" s="1"/>
       <c r="H75" s="1"/>
     </row>
-    <row r="76" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B76" s="1"/>
       <c r="C76" s="3">
         <v>1</v>
@@ -3111,7 +2943,7 @@
       <c r="G76" s="1"/>
       <c r="H76" s="1"/>
     </row>
-    <row r="77" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B77" s="1"/>
       <c r="C77" s="3">
         <v>1</v>
@@ -3124,7 +2956,7 @@
       <c r="G77" s="1"/>
       <c r="H77" s="1"/>
     </row>
-    <row r="78" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
@@ -3133,7 +2965,7 @@
       <c r="G78" s="1"/>
       <c r="H78" s="1"/>
     </row>
-    <row r="79" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
@@ -3142,24 +2974,24 @@
       <c r="G79" s="1"/>
       <c r="H79" s="1"/>
     </row>
-    <row r="80" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B80" s="10" t="s">
-        <v>158</v>
+        <v>108</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E80" s="1"/>
       <c r="F80" s="1"/>
       <c r="G80" s="1"/>
       <c r="H80" s="1"/>
     </row>
-    <row r="81" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B81" s="11" t="s">
-        <v>110</v>
+        <v>43</v>
       </c>
       <c r="C81" s="3">
         <v>1</v>
@@ -3172,7 +3004,7 @@
       <c r="G81" s="1"/>
       <c r="H81" s="1"/>
     </row>
-    <row r="82" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B82" s="1"/>
       <c r="C82" s="3">
         <v>2</v>
@@ -3185,7 +3017,7 @@
       <c r="G82" s="1"/>
       <c r="H82" s="1"/>
     </row>
-    <row r="83" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B83" s="1"/>
       <c r="C83" s="3">
         <v>3</v>
@@ -3198,7 +3030,7 @@
       <c r="G83" s="1"/>
       <c r="H83" s="1"/>
     </row>
-    <row r="84" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B84" s="1"/>
       <c r="C84" s="3">
         <v>4</v>
@@ -3211,7 +3043,7 @@
       <c r="G84" s="1"/>
       <c r="H84" s="1"/>
     </row>
-    <row r="85" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B85" s="1"/>
       <c r="C85" s="3">
         <v>5</v>
@@ -3224,7 +3056,7 @@
       <c r="G85" s="1"/>
       <c r="H85" s="1"/>
     </row>
-    <row r="86" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
@@ -3235,27 +3067,27 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="I27" r:id="rId1"/>
-    <hyperlink ref="I26" r:id="rId2"/>
-    <hyperlink ref="I25" r:id="rId3"/>
-    <hyperlink ref="I24" r:id="rId4"/>
-    <hyperlink ref="I23" r:id="rId5"/>
-    <hyperlink ref="I18" r:id="rId6"/>
-    <hyperlink ref="I17" r:id="rId7"/>
-    <hyperlink ref="I16" r:id="rId8"/>
-    <hyperlink ref="I15" r:id="rId9"/>
-    <hyperlink ref="I14" r:id="rId10"/>
-    <hyperlink ref="J18" r:id="rId11"/>
-    <hyperlink ref="J17" r:id="rId12"/>
-    <hyperlink ref="J16" r:id="rId13"/>
-    <hyperlink ref="J15" r:id="rId14"/>
-    <hyperlink ref="J27" r:id="rId15"/>
-    <hyperlink ref="J26" r:id="rId16"/>
-    <hyperlink ref="J25" r:id="rId17"/>
-    <hyperlink ref="J24" r:id="rId18"/>
-    <hyperlink ref="J23" r:id="rId19"/>
-    <hyperlink ref="J14" r:id="rId20"/>
-    <hyperlink ref="D8" r:id="rId21"/>
+    <hyperlink ref="I27" r:id="rId1" display="Parag@513" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="I26" r:id="rId2" display="Saleel@451" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="I25" r:id="rId3" display="Shrinivas@353" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="I24" r:id="rId4" display="Janhvi@211" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="I23" r:id="rId5" display="Prachi@123" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+    <hyperlink ref="I18" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
+    <hyperlink ref="I17" r:id="rId7" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
+    <hyperlink ref="I16" r:id="rId8" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
+    <hyperlink ref="I15" r:id="rId9" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
+    <hyperlink ref="I14" r:id="rId10" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
+    <hyperlink ref="J18" r:id="rId11" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
+    <hyperlink ref="J17" r:id="rId12" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
+    <hyperlink ref="J16" r:id="rId13" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
+    <hyperlink ref="J15" r:id="rId14" xr:uid="{00000000-0004-0000-0100-00000D000000}"/>
+    <hyperlink ref="J27" r:id="rId15" xr:uid="{00000000-0004-0000-0100-00000E000000}"/>
+    <hyperlink ref="J26" r:id="rId16" xr:uid="{00000000-0004-0000-0100-00000F000000}"/>
+    <hyperlink ref="J25" r:id="rId17" xr:uid="{00000000-0004-0000-0100-000010000000}"/>
+    <hyperlink ref="J24" r:id="rId18" xr:uid="{00000000-0004-0000-0100-000011000000}"/>
+    <hyperlink ref="J23" r:id="rId19" xr:uid="{00000000-0004-0000-0100-000012000000}"/>
+    <hyperlink ref="J14" r:id="rId20" xr:uid="{00000000-0004-0000-0100-000013000000}"/>
+    <hyperlink ref="D8" r:id="rId21" xr:uid="{00000000-0004-0000-0100-000014000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
